--- a/data/Real.xlsx
+++ b/data/Real.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MDED\Comert exterior\COD_PAGE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171354C6-BD52-4D70-A11A-0E68B4CEAD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B308C966-292B-4659-9FF1-EC6CF32ACE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Real" sheetId="1" r:id="rId1"/>
+    <sheet name="Tranport" sheetId="2" r:id="rId2"/>
+    <sheet name="Agricultura" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>An</t>
   </si>
@@ -40,16 +51,81 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Trimestrul</t>
+  </si>
+  <si>
+    <t>Trimestrul I</t>
+  </si>
+  <si>
+    <t>Trimestrul II</t>
+  </si>
+  <si>
+    <t>Trimestrul III</t>
+  </si>
+  <si>
+    <t>Trimestrul IV</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Total mărfuri transportate, mii tone</t>
+  </si>
+  <si>
+    <t>Feroviar mărfuri</t>
+  </si>
+  <si>
+    <t>Rutier mărfuri</t>
+  </si>
+  <si>
+    <t>Naval intern mărfuri</t>
+  </si>
+  <si>
+    <t>Aerian mărfuri</t>
+  </si>
+  <si>
+    <t>Total, mii pasageri</t>
+  </si>
+  <si>
+    <t>Feroviar pasageri</t>
+  </si>
+  <si>
+    <t>Autobuze pasageri</t>
+  </si>
+  <si>
+    <t>Naval intern pasageri</t>
+  </si>
+  <si>
+    <t>Aerian pasageri</t>
+  </si>
+  <si>
+    <t>Troleibuze pasageri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="[$-418]mmmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,8 +153,39 @@
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,8 +197,14 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -134,11 +247,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -158,11 +285,269 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B9613CB0-769C-4097-A46C-D875C9FAD63D}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-418]mmmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-418]mmmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-418]mmmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-418]mmmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -173,6 +558,30 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A6A945B-9F29-4D0C-8A7A-AF2D42CC98E8}" name="Table1" displayName="Table1" ref="A1:M18" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
+  <autoFilter ref="A1:M18" xr:uid="{4A6A945B-9F29-4D0C-8A7A-AF2D42CC98E8}"/>
+  <tableColumns count="13">
+    <tableColumn id="7" xr3:uid="{045D9D44-7F60-4F4E-B61F-3C4A811526D5}" name="An" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{05E6B759-F583-4594-A2AF-6E8346DD0354}" name="Trimestrul" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{C91398D6-47F0-4A5A-BEA2-B71364BCE39C}" name="Total mărfuri transportate, mii tone" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{E18D51A5-C42B-444A-9D0F-BA427D9D332E}" name="Feroviar mărfuri" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{47BED2D8-EC79-4C6C-B0F1-269C21B4A651}" name="Rutier mărfuri" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{187F9AE5-AEB9-446C-B135-60A7812772A0}" name="Naval intern mărfuri" dataDxfId="7">
+      <calculatedColumnFormula>100-Table1[[#This Row],[Rutier mărfuri]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{17C45A0B-4F8F-4165-AFD6-342E4D85CDEF}" name="Aerian mărfuri" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{AE65F488-C6CE-423C-BE5F-6E13CA04D67B}" name="Total, mii pasageri" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{054B5A21-5670-4D75-B527-D701FA97FF96}" name="Feroviar pasageri" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{858A33EB-AC84-4596-97B6-931123E5AE09}" name="Autobuze pasageri" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{8F0FA7F8-3E7C-45FB-A784-A3FD73E74181}" name="Naval intern pasageri" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{A278E207-3697-42C8-8030-FE745DF5EF5C}" name="Aerian pasageri" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{B0B69F08-9A3E-4D11-B722-C4C9440C673F}" name="Troleibuze pasageri" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,7 +874,7 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -689,4 +1098,829 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5958FE6E-4604-4B72-A642-DC4E97D5FA20}">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="31" style="8" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16" style="8" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="26.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="8" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10">
+        <v>3097</v>
+      </c>
+      <c r="D2" s="10">
+        <v>543.29999999999995</v>
+      </c>
+      <c r="E2" s="10">
+        <v>2506.1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>47.3</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="H2" s="14">
+        <v>45659.199999999997</v>
+      </c>
+      <c r="I2" s="14">
+        <v>140.69999999999999</v>
+      </c>
+      <c r="J2" s="14">
+        <v>14224.7</v>
+      </c>
+      <c r="K2" s="14">
+        <v>52.3</v>
+      </c>
+      <c r="L2" s="14">
+        <v>83.8</v>
+      </c>
+      <c r="M2" s="14">
+        <v>31157.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10">
+        <v>4612.1000000000004</v>
+      </c>
+      <c r="D3" s="10">
+        <v>623.6</v>
+      </c>
+      <c r="E3" s="10">
+        <v>3940.5</v>
+      </c>
+      <c r="F3" s="10">
+        <v>47.6</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="H3" s="14">
+        <v>47648.9</v>
+      </c>
+      <c r="I3" s="14">
+        <v>156.5</v>
+      </c>
+      <c r="J3" s="14">
+        <v>14701.4</v>
+      </c>
+      <c r="K3" s="14">
+        <v>45.7</v>
+      </c>
+      <c r="L3" s="14">
+        <v>185.9</v>
+      </c>
+      <c r="M3" s="14">
+        <v>32559.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10">
+        <v>5747.7</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1046</v>
+      </c>
+      <c r="E4" s="10">
+        <v>4660.3999999999996</v>
+      </c>
+      <c r="F4" s="10">
+        <v>41</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="14">
+        <v>51546.8</v>
+      </c>
+      <c r="I4" s="14">
+        <v>178.6</v>
+      </c>
+      <c r="J4" s="14">
+        <v>15282.3</v>
+      </c>
+      <c r="K4" s="14">
+        <v>39</v>
+      </c>
+      <c r="L4" s="14">
+        <v>365.4</v>
+      </c>
+      <c r="M4" s="14">
+        <v>35681.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11">
+        <v>6254.3</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1104.7</v>
+      </c>
+      <c r="E5" s="10">
+        <v>5117.1000000000004</v>
+      </c>
+      <c r="F5" s="10">
+        <v>32.1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="14">
+        <v>52124.3</v>
+      </c>
+      <c r="I5" s="14">
+        <v>121.8</v>
+      </c>
+      <c r="J5" s="14">
+        <v>15048.8</v>
+      </c>
+      <c r="K5" s="14">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="L5" s="14">
+        <v>203</v>
+      </c>
+      <c r="M5" s="14">
+        <v>36718.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="11">
+        <v>4585.8999999999996</v>
+      </c>
+      <c r="D6" s="11">
+        <v>938.5</v>
+      </c>
+      <c r="E6" s="10">
+        <v>3620.4</v>
+      </c>
+      <c r="F6" s="10">
+        <v>26.7</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="14">
+        <v>51749.7</v>
+      </c>
+      <c r="I6" s="14">
+        <v>127.1</v>
+      </c>
+      <c r="J6" s="14">
+        <v>16098.6</v>
+      </c>
+      <c r="K6" s="14">
+        <v>24</v>
+      </c>
+      <c r="L6" s="14">
+        <v>107.3</v>
+      </c>
+      <c r="M6" s="14">
+        <v>35392.699999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11">
+        <v>4655.7</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1060.4000000000001</v>
+      </c>
+      <c r="E7" s="10">
+        <v>3554.6</v>
+      </c>
+      <c r="F7" s="10">
+        <v>40.5</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="14">
+        <v>57937.2</v>
+      </c>
+      <c r="I7" s="14">
+        <v>145.9</v>
+      </c>
+      <c r="J7" s="14">
+        <v>16697.099999999999</v>
+      </c>
+      <c r="K7" s="14">
+        <v>60.4</v>
+      </c>
+      <c r="L7" s="14">
+        <v>275.3</v>
+      </c>
+      <c r="M7" s="14">
+        <v>40758.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11">
+        <v>5624.3</v>
+      </c>
+      <c r="D8" s="11">
+        <v>976.1</v>
+      </c>
+      <c r="E8" s="10">
+        <v>4611.5</v>
+      </c>
+      <c r="F8" s="10">
+        <v>36.4</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="14">
+        <v>63910.9</v>
+      </c>
+      <c r="I8" s="14">
+        <v>147.9</v>
+      </c>
+      <c r="J8" s="14">
+        <v>20972.6</v>
+      </c>
+      <c r="K8" s="14">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="L8" s="14">
+        <v>507.4</v>
+      </c>
+      <c r="M8" s="14">
+        <v>42262.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11">
+        <v>5971.6</v>
+      </c>
+      <c r="D9" s="11">
+        <v>844</v>
+      </c>
+      <c r="E9" s="10">
+        <v>5095</v>
+      </c>
+      <c r="F9" s="10">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="H9" s="14">
+        <v>72778.899999999994</v>
+      </c>
+      <c r="I9" s="14">
+        <v>151.30000000000001</v>
+      </c>
+      <c r="J9" s="14">
+        <v>25700.5</v>
+      </c>
+      <c r="K9" s="14">
+        <v>28.4</v>
+      </c>
+      <c r="L9" s="14">
+        <v>310.2</v>
+      </c>
+      <c r="M9" s="14">
+        <v>46588.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11">
+        <v>4022.9</v>
+      </c>
+      <c r="D10" s="11">
+        <v>821.4</v>
+      </c>
+      <c r="E10" s="10">
+        <v>3171.6</v>
+      </c>
+      <c r="F10" s="10">
+        <v>29.5</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="H10" s="14">
+        <v>67437.2</v>
+      </c>
+      <c r="I10" s="14">
+        <v>180.8</v>
+      </c>
+      <c r="J10" s="14">
+        <v>20865.099999999999</v>
+      </c>
+      <c r="K10" s="14">
+        <v>24.3</v>
+      </c>
+      <c r="L10" s="14">
+        <v>249.3</v>
+      </c>
+      <c r="M10" s="14">
+        <v>46117.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10">
+        <v>4172.6000000000004</v>
+      </c>
+      <c r="D11" s="10">
+        <v>862.3</v>
+      </c>
+      <c r="E11" s="10">
+        <v>3273.1</v>
+      </c>
+      <c r="F11" s="10">
+        <v>36.9</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="14">
+        <v>66165.2</v>
+      </c>
+      <c r="I11" s="14">
+        <v>181.5</v>
+      </c>
+      <c r="J11" s="14">
+        <v>20243.5</v>
+      </c>
+      <c r="K11" s="14">
+        <v>44.2</v>
+      </c>
+      <c r="L11" s="14">
+        <v>275.7</v>
+      </c>
+      <c r="M11" s="14">
+        <v>45420.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10">
+        <v>5441.3</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1210.5999999999999</v>
+      </c>
+      <c r="E12" s="10">
+        <v>4194.6000000000004</v>
+      </c>
+      <c r="F12" s="10">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="14">
+        <v>66536.399999999994</v>
+      </c>
+      <c r="I12" s="14">
+        <v>210.5</v>
+      </c>
+      <c r="J12" s="14">
+        <v>21345.8</v>
+      </c>
+      <c r="K12" s="14">
+        <v>35.5</v>
+      </c>
+      <c r="L12" s="14">
+        <v>443.4</v>
+      </c>
+      <c r="M12" s="14">
+        <v>44501.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10">
+        <v>6127.6</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1053.0999999999999</v>
+      </c>
+      <c r="E13" s="10">
+        <v>5038.5</v>
+      </c>
+      <c r="F13" s="10">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="H13" s="14">
+        <v>73317.5</v>
+      </c>
+      <c r="I13" s="14">
+        <v>201.5</v>
+      </c>
+      <c r="J13" s="14">
+        <v>22994.400000000001</v>
+      </c>
+      <c r="K13" s="14">
+        <v>24.2</v>
+      </c>
+      <c r="L13" s="14">
+        <v>290.89999999999998</v>
+      </c>
+      <c r="M13" s="14">
+        <v>49806.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="10">
+        <v>4016.3</v>
+      </c>
+      <c r="D14" s="10">
+        <v>627.70000000000005</v>
+      </c>
+      <c r="E14" s="10">
+        <v>3358.4</v>
+      </c>
+      <c r="F14" s="10">
+        <v>29.8</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="H14" s="14">
+        <v>74575.199999999997</v>
+      </c>
+      <c r="I14" s="14">
+        <v>157.5</v>
+      </c>
+      <c r="J14" s="14">
+        <v>25519.9</v>
+      </c>
+      <c r="K14" s="14">
+        <v>22.2</v>
+      </c>
+      <c r="L14" s="14">
+        <v>263.8</v>
+      </c>
+      <c r="M14" s="14">
+        <v>48611.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10">
+        <v>4862.8</v>
+      </c>
+      <c r="D15" s="10">
+        <v>704.7</v>
+      </c>
+      <c r="E15" s="10">
+        <v>4122.7</v>
+      </c>
+      <c r="F15" s="10">
+        <v>35</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="H15" s="14">
+        <v>66760.899999999994</v>
+      </c>
+      <c r="I15" s="14">
+        <v>152.30000000000001</v>
+      </c>
+      <c r="J15" s="14">
+        <v>26847.599999999999</v>
+      </c>
+      <c r="K15" s="14">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="L15" s="14">
+        <v>361.6</v>
+      </c>
+      <c r="M15" s="14">
+        <v>39364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="10">
+        <v>5362.5</v>
+      </c>
+      <c r="D16" s="10">
+        <v>619.20000000000005</v>
+      </c>
+      <c r="E16" s="10">
+        <v>4702.6000000000004</v>
+      </c>
+      <c r="F16" s="10">
+        <v>40.4</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="14">
+        <v>88329</v>
+      </c>
+      <c r="I16" s="14">
+        <v>148.5</v>
+      </c>
+      <c r="J16" s="14">
+        <v>27741</v>
+      </c>
+      <c r="K16" s="14">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="L16" s="14">
+        <v>532.1</v>
+      </c>
+      <c r="M16" s="14">
+        <v>59867.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="10">
+        <v>5971.1</v>
+      </c>
+      <c r="D17" s="10">
+        <v>505.8</v>
+      </c>
+      <c r="E17" s="10">
+        <v>5431.9</v>
+      </c>
+      <c r="F17" s="10">
+        <v>33</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="H17" s="14">
+        <v>77963.8</v>
+      </c>
+      <c r="I17" s="14">
+        <v>131.5</v>
+      </c>
+      <c r="J17" s="14">
+        <v>24920.400000000001</v>
+      </c>
+      <c r="K17" s="14">
+        <v>30.6</v>
+      </c>
+      <c r="L17" s="14">
+        <v>404.3</v>
+      </c>
+      <c r="M17" s="14">
+        <v>52477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="10">
+        <v>3924.5</v>
+      </c>
+      <c r="D18" s="10">
+        <v>501.1</v>
+      </c>
+      <c r="E18" s="10">
+        <v>3394</v>
+      </c>
+      <c r="F18" s="10">
+        <v>29.1</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="14">
+        <v>82252.600000000006</v>
+      </c>
+      <c r="I18" s="14">
+        <v>105</v>
+      </c>
+      <c r="J18" s="14">
+        <v>27751.3</v>
+      </c>
+      <c r="K18" s="14">
+        <v>25.5</v>
+      </c>
+      <c r="L18" s="14">
+        <v>346.7</v>
+      </c>
+      <c r="M18" s="14">
+        <v>54024.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>2025</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="11">
+        <v>4510.6000000000004</v>
+      </c>
+      <c r="D19" s="11">
+        <v>522.20000000000005</v>
+      </c>
+      <c r="E19" s="13">
+        <v>3947.3</v>
+      </c>
+      <c r="F19" s="11">
+        <v>40.9</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H19" s="8">
+        <v>82028.7</v>
+      </c>
+      <c r="I19" s="8">
+        <v>75</v>
+      </c>
+      <c r="J19" s="8">
+        <v>27696.3</v>
+      </c>
+      <c r="K19" s="8">
+        <v>36.5</v>
+      </c>
+      <c r="L19" s="8">
+        <v>491.5</v>
+      </c>
+      <c r="M19" s="8">
+        <v>53729.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657D5A45-2ADC-4DD2-AEEC-998D0382C5EC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Real.xlsx
+++ b/data/Real.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MDED\Comert exterior\COD_PAGE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B308C966-292B-4659-9FF1-EC6CF32ACE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05CD818-7CD7-4D1C-A5D4-33445B70F0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Real" sheetId="1" r:id="rId1"/>
-    <sheet name="Tranport" sheetId="2" r:id="rId2"/>
-    <sheet name="Agricultura" sheetId="3" r:id="rId3"/>
+    <sheet name="PIB" sheetId="3" r:id="rId2"/>
+    <sheet name="PIB_utilizari" sheetId="5" r:id="rId3"/>
+    <sheet name="Tranport" sheetId="2" r:id="rId4"/>
+    <sheet name="Comert" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>An</t>
   </si>
@@ -50,9 +53,6 @@
     <t>Investiţiile directe acumulate în Republica Moldova (stoc) (MBP6), mil. USD</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>Trimestrul</t>
   </si>
   <si>
@@ -114,6 +114,75 @@
   </si>
   <si>
     <t>Troleibuze pasageri</t>
+  </si>
+  <si>
+    <t>PIB</t>
+  </si>
+  <si>
+    <t>Impozite nete pe produse curent</t>
+  </si>
+  <si>
+    <t>Agricultura, silvicultura si pescuit curent</t>
+  </si>
+  <si>
+    <t>Industrie curent</t>
+  </si>
+  <si>
+    <t>Constructii curent</t>
+  </si>
+  <si>
+    <t>Servicii curent</t>
+  </si>
+  <si>
+    <t>PIB curent</t>
+  </si>
+  <si>
+    <t>PIB comparabil</t>
+  </si>
+  <si>
+    <t>Impozite nete pe produse comparabil</t>
+  </si>
+  <si>
+    <t>Agricultura, silvicultura si pescuit comparabil</t>
+  </si>
+  <si>
+    <t>Industrie comparabil</t>
+  </si>
+  <si>
+    <t>Constructii comparabil</t>
+  </si>
+  <si>
+    <t>Servicii comparabil</t>
+  </si>
+  <si>
+    <t>Formarea bruta de capital curent</t>
+  </si>
+  <si>
+    <t>Formarea bruta de capital comparabil</t>
+  </si>
+  <si>
+    <t>Consumul final al gospodariilor populatiei curent</t>
+  </si>
+  <si>
+    <t>Consumul final al administratiei publice curent</t>
+  </si>
+  <si>
+    <t>Import curent</t>
+  </si>
+  <si>
+    <t>Export curent</t>
+  </si>
+  <si>
+    <t>Consumul final al gospodariilor populatiei comparabil</t>
+  </si>
+  <si>
+    <t>Consumul final al administratiei publice comparabil</t>
+  </si>
+  <si>
+    <t>Export comparabil</t>
+  </si>
+  <si>
+    <t>Import comparabil</t>
   </si>
 </sst>
 </file>
@@ -125,7 +194,7 @@
     <numFmt numFmtId="165" formatCode="[$-418]mmmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +250,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -265,14 +341,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -305,6 +375,36 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -872,227 +972,268 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>2010</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4">
+      <c r="B2" s="14">
+        <v>86275.376999999993</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
         <v>13300</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="2">
         <v>2907.18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2011</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4">
+      <c r="B3" s="14">
+        <v>98772.813999999998</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
         <v>19873</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="2">
         <v>3385.91</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2012</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4">
+      <c r="B4" s="14">
+        <v>105480.18399999999</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
         <v>22619</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="2">
         <v>3443.09</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2013</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="14">
+        <v>119532.871</v>
+      </c>
+      <c r="C5" s="2">
         <v>39403.300000000003</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="2">
         <v>19922</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="2">
         <v>3380.62</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>2014</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="14">
+        <v>131964.258</v>
+      </c>
+      <c r="C6" s="2">
         <v>43548</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="2">
         <v>23814</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="2">
         <v>3274.86</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2015</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="14">
+        <v>146740.20499999999</v>
+      </c>
+      <c r="C7" s="2">
         <v>45654.9</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="2">
         <v>27254</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="2">
         <v>2903.69</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>2016</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="14">
+        <v>159010.41899999999</v>
+      </c>
+      <c r="C8" s="2">
         <v>47593.7</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="2">
         <v>27193</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="2">
         <v>2955.62</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>2017</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="14">
+        <v>176007.29300000001</v>
+      </c>
+      <c r="C9" s="2">
         <v>52718.460799999993</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="2">
         <v>30362</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="2">
         <v>3628.3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>2018</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="14">
+        <v>189062.62700000001</v>
+      </c>
+      <c r="C10" s="2">
         <v>56200.5095</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="2">
         <v>34142.400000000001</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="2">
         <v>4084.47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>2019</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="14">
+        <v>206256.239</v>
+      </c>
+      <c r="C11" s="2">
         <v>59333.121399999996</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="2">
         <v>32637.3</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="2">
         <v>4737.8100000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>2020</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="14">
+        <v>199733.68400000001</v>
+      </c>
+      <c r="C12" s="2">
         <v>59659.606299999999</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="2">
         <v>34597.300000000003</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="2">
         <v>4747.79</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>2021</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="14">
+        <v>242078.6</v>
+      </c>
+      <c r="C13" s="2">
         <v>70561.767000000007</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="2">
         <v>30061</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="2">
         <v>4800.7299999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>2022</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="14">
+        <v>274488.06300000002</v>
+      </c>
+      <c r="C14" s="2">
         <v>85501.3027</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="2">
         <v>48434</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="2">
         <v>4926.3999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>2023</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="14">
+        <v>303554.037962</v>
+      </c>
+      <c r="C15" s="2">
         <v>87596.523400000005</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="2">
         <v>41024.6</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="2">
         <v>5533.8572816180003</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1101,807 +1242,2183 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657D5A45-2ADC-4DD2-AEEC-998D0382C5EC}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="27" style="6" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>2010</v>
+      </c>
+      <c r="B2" s="9">
+        <v>86275377</v>
+      </c>
+      <c r="C2" s="9">
+        <v>11964786</v>
+      </c>
+      <c r="D2" s="9">
+        <v>9629417</v>
+      </c>
+      <c r="E2" s="9">
+        <v>11847116</v>
+      </c>
+      <c r="F2" s="9">
+        <v>5782301</v>
+      </c>
+      <c r="G2" s="9">
+        <v>47051759</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="9">
+        <v>98772814</v>
+      </c>
+      <c r="C3" s="9">
+        <v>13959146</v>
+      </c>
+      <c r="D3" s="9">
+        <v>11244547</v>
+      </c>
+      <c r="E3" s="9">
+        <v>14197122</v>
+      </c>
+      <c r="F3" s="9">
+        <v>6456985</v>
+      </c>
+      <c r="G3" s="9">
+        <v>52915016</v>
+      </c>
+      <c r="H3" s="9">
+        <v>91295022</v>
+      </c>
+      <c r="I3" s="9">
+        <v>13111485</v>
+      </c>
+      <c r="J3" s="9">
+        <v>10120420</v>
+      </c>
+      <c r="K3" s="9">
+        <v>13057516</v>
+      </c>
+      <c r="L3" s="9">
+        <v>5892158</v>
+      </c>
+      <c r="M3" s="9">
+        <v>49113443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>2012</v>
+      </c>
+      <c r="B4" s="9">
+        <v>105480184</v>
+      </c>
+      <c r="C4" s="9">
+        <v>14541658</v>
+      </c>
+      <c r="D4" s="9">
+        <v>11020752</v>
+      </c>
+      <c r="E4" s="9">
+        <v>15257943</v>
+      </c>
+      <c r="F4" s="9">
+        <v>7224642</v>
+      </c>
+      <c r="G4" s="9">
+        <v>57435189</v>
+      </c>
+      <c r="H4" s="9">
+        <v>98190317</v>
+      </c>
+      <c r="I4" s="9">
+        <v>14068848</v>
+      </c>
+      <c r="J4" s="9">
+        <v>8952114</v>
+      </c>
+      <c r="K4" s="9">
+        <v>14279644</v>
+      </c>
+      <c r="L4" s="9">
+        <v>6568529</v>
+      </c>
+      <c r="M4" s="9">
+        <v>54321182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="9">
+        <v>119532871</v>
+      </c>
+      <c r="C5" s="9">
+        <v>16790995</v>
+      </c>
+      <c r="D5" s="9">
+        <v>13806479</v>
+      </c>
+      <c r="E5" s="9">
+        <v>17809373</v>
+      </c>
+      <c r="F5" s="9">
+        <v>8013620</v>
+      </c>
+      <c r="G5" s="9">
+        <v>63112403</v>
+      </c>
+      <c r="H5" s="9">
+        <v>115019670</v>
+      </c>
+      <c r="I5" s="9">
+        <v>15288205</v>
+      </c>
+      <c r="J5" s="9">
+        <v>16180009</v>
+      </c>
+      <c r="K5" s="9">
+        <v>16217672</v>
+      </c>
+      <c r="L5" s="9">
+        <v>7606252</v>
+      </c>
+      <c r="M5" s="9">
+        <v>59727533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="9">
+        <v>131964258</v>
+      </c>
+      <c r="C6" s="9">
+        <v>17546019</v>
+      </c>
+      <c r="D6" s="9">
+        <v>18568634</v>
+      </c>
+      <c r="E6" s="9">
+        <v>17525215</v>
+      </c>
+      <c r="F6" s="9">
+        <v>10354052</v>
+      </c>
+      <c r="G6" s="9">
+        <v>67970339</v>
+      </c>
+      <c r="H6" s="9">
+        <v>125509067</v>
+      </c>
+      <c r="I6" s="9">
+        <v>17231934</v>
+      </c>
+      <c r="J6" s="9">
+        <v>14992516</v>
+      </c>
+      <c r="K6" s="9">
+        <v>19230233</v>
+      </c>
+      <c r="L6" s="9">
+        <v>8885288</v>
+      </c>
+      <c r="M6" s="9">
+        <v>65169097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="9">
+        <v>146740205</v>
+      </c>
+      <c r="C7" s="9">
+        <v>18690113</v>
+      </c>
+      <c r="D7" s="9">
+        <v>18813937</v>
+      </c>
+      <c r="E7" s="9">
+        <v>20026096</v>
+      </c>
+      <c r="F7" s="9">
+        <v>10947336</v>
+      </c>
+      <c r="G7" s="9">
+        <v>78262724</v>
+      </c>
+      <c r="H7" s="9">
+        <v>131065513</v>
+      </c>
+      <c r="I7" s="9">
+        <v>17537217</v>
+      </c>
+      <c r="J7" s="9">
+        <v>16094021</v>
+      </c>
+      <c r="K7" s="9">
+        <v>18098580</v>
+      </c>
+      <c r="L7" s="9">
+        <v>10417489</v>
+      </c>
+      <c r="M7" s="9">
+        <v>68918204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="9">
+        <v>159010419</v>
+      </c>
+      <c r="C8" s="9">
+        <v>19927291</v>
+      </c>
+      <c r="D8" s="9">
+        <v>19844093</v>
+      </c>
+      <c r="E8" s="9">
+        <v>21657733</v>
+      </c>
+      <c r="F8" s="9">
+        <v>12043674</v>
+      </c>
+      <c r="G8" s="9">
+        <v>85537626</v>
+      </c>
+      <c r="H8" s="9">
+        <v>153557776</v>
+      </c>
+      <c r="I8" s="9">
+        <v>18798004</v>
+      </c>
+      <c r="J8" s="9">
+        <v>22273075</v>
+      </c>
+      <c r="K8" s="9">
+        <v>20564956</v>
+      </c>
+      <c r="L8" s="9">
+        <v>10494619</v>
+      </c>
+      <c r="M8" s="9">
+        <v>81427121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="9">
+        <v>176007293</v>
+      </c>
+      <c r="C9" s="9">
+        <v>24066311</v>
+      </c>
+      <c r="D9" s="9">
+        <v>21472170</v>
+      </c>
+      <c r="E9" s="9">
+        <v>23853270</v>
+      </c>
+      <c r="F9" s="9">
+        <v>13141486</v>
+      </c>
+      <c r="G9" s="9">
+        <v>93474055</v>
+      </c>
+      <c r="H9" s="9">
+        <v>165650077</v>
+      </c>
+      <c r="I9" s="9">
+        <v>21483939</v>
+      </c>
+      <c r="J9" s="9">
+        <v>20820802</v>
+      </c>
+      <c r="K9" s="9">
+        <v>22762832</v>
+      </c>
+      <c r="L9" s="9">
+        <v>12313123</v>
+      </c>
+      <c r="M9" s="9">
+        <v>88269381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="9">
+        <v>189062627</v>
+      </c>
+      <c r="C10" s="9">
+        <v>26036486</v>
+      </c>
+      <c r="D10" s="9">
+        <v>19183955</v>
+      </c>
+      <c r="E10" s="9">
+        <v>25621358</v>
+      </c>
+      <c r="F10" s="9">
+        <v>16252188</v>
+      </c>
+      <c r="G10" s="9">
+        <v>101968643</v>
+      </c>
+      <c r="H10" s="9">
+        <v>183180638</v>
+      </c>
+      <c r="I10" s="9">
+        <v>25024657</v>
+      </c>
+      <c r="J10" s="9">
+        <v>20419073</v>
+      </c>
+      <c r="K10" s="9">
+        <v>25219825</v>
+      </c>
+      <c r="L10" s="9">
+        <v>15500785</v>
+      </c>
+      <c r="M10" s="9">
+        <v>97016300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>2019</v>
+      </c>
+      <c r="B11" s="9">
+        <v>206256239</v>
+      </c>
+      <c r="C11" s="9">
+        <v>27303950</v>
+      </c>
+      <c r="D11" s="9">
+        <v>20957310</v>
+      </c>
+      <c r="E11" s="9">
+        <v>27130305</v>
+      </c>
+      <c r="F11" s="9">
+        <v>18087970</v>
+      </c>
+      <c r="G11" s="9">
+        <v>112776703</v>
+      </c>
+      <c r="H11" s="9">
+        <v>195778725</v>
+      </c>
+      <c r="I11" s="9">
+        <v>26191960</v>
+      </c>
+      <c r="J11" s="9">
+        <v>19224684</v>
+      </c>
+      <c r="K11" s="9">
+        <v>26789689</v>
+      </c>
+      <c r="L11" s="9">
+        <v>17366350</v>
+      </c>
+      <c r="M11" s="9">
+        <v>106206042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="9">
+        <v>199733684</v>
+      </c>
+      <c r="C12" s="9">
+        <v>26772430</v>
+      </c>
+      <c r="D12" s="9">
+        <v>18708439</v>
+      </c>
+      <c r="E12" s="9">
+        <v>26240674</v>
+      </c>
+      <c r="F12" s="9">
+        <v>19966761</v>
+      </c>
+      <c r="G12" s="9">
+        <v>108045382</v>
+      </c>
+      <c r="H12" s="9">
+        <v>189186518</v>
+      </c>
+      <c r="I12" s="9">
+        <v>25653037</v>
+      </c>
+      <c r="J12" s="9">
+        <v>14797108</v>
+      </c>
+      <c r="K12" s="9">
+        <v>25784405</v>
+      </c>
+      <c r="L12" s="9">
+        <v>19783105</v>
+      </c>
+      <c r="M12" s="9">
+        <v>103168863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="9">
+        <v>242078629</v>
+      </c>
+      <c r="C13" s="9">
+        <v>34231156</v>
+      </c>
+      <c r="D13" s="9">
+        <v>25627865</v>
+      </c>
+      <c r="E13" s="9">
+        <v>30636999</v>
+      </c>
+      <c r="F13" s="9">
+        <v>19306873</v>
+      </c>
+      <c r="G13" s="9">
+        <v>132275735</v>
+      </c>
+      <c r="H13" s="9">
+        <v>227556586</v>
+      </c>
+      <c r="I13" s="9">
+        <v>31347597</v>
+      </c>
+      <c r="J13" s="9">
+        <v>28110386</v>
+      </c>
+      <c r="K13" s="9">
+        <v>28124545</v>
+      </c>
+      <c r="L13" s="9">
+        <v>17994032</v>
+      </c>
+      <c r="M13" s="9">
+        <v>121980026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="9">
+        <v>274488063.25880164</v>
+      </c>
+      <c r="C14" s="9">
+        <v>38168961.199999996</v>
+      </c>
+      <c r="D14" s="9">
+        <v>22272729.704368856</v>
+      </c>
+      <c r="E14" s="9">
+        <v>31489189.698747247</v>
+      </c>
+      <c r="F14" s="9">
+        <v>20912836.227887414</v>
+      </c>
+      <c r="G14" s="9">
+        <v>161644346.42779809</v>
+      </c>
+      <c r="H14" s="9">
+        <v>230827174.85915086</v>
+      </c>
+      <c r="I14" s="9">
+        <v>31505731.336716179</v>
+      </c>
+      <c r="J14" s="9">
+        <v>19613879.237614304</v>
+      </c>
+      <c r="K14" s="9">
+        <v>27368860.449310027</v>
+      </c>
+      <c r="L14" s="9">
+        <v>17433261.07868731</v>
+      </c>
+      <c r="M14" s="9">
+        <v>134905442.75682303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="9">
+        <v>303554038</v>
+      </c>
+      <c r="C15" s="9">
+        <v>41622617</v>
+      </c>
+      <c r="D15" s="9">
+        <v>21505433</v>
+      </c>
+      <c r="E15" s="9">
+        <v>32063828</v>
+      </c>
+      <c r="F15" s="9">
+        <v>21628409</v>
+      </c>
+      <c r="G15" s="9">
+        <v>186733753</v>
+      </c>
+      <c r="H15" s="9">
+        <v>277749038</v>
+      </c>
+      <c r="I15" s="9">
+        <v>35765830</v>
+      </c>
+      <c r="J15" s="9">
+        <v>28225889</v>
+      </c>
+      <c r="K15" s="9">
+        <v>28648371</v>
+      </c>
+      <c r="L15" s="9">
+        <v>19146657</v>
+      </c>
+      <c r="M15" s="9">
+        <v>165962292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>2024</v>
+      </c>
+      <c r="B16" s="9">
+        <v>323816824.35723025</v>
+      </c>
+      <c r="C16" s="9">
+        <v>44839012.124774933</v>
+      </c>
+      <c r="D16" s="9">
+        <v>23012163.955753174</v>
+      </c>
+      <c r="E16" s="9">
+        <v>31462281.382895026</v>
+      </c>
+      <c r="F16" s="9">
+        <v>22875723.335323244</v>
+      </c>
+      <c r="G16" s="9">
+        <v>201627643.55848387</v>
+      </c>
+      <c r="H16" s="9">
+        <v>303866878.96958101</v>
+      </c>
+      <c r="I16" s="9">
+        <v>41440182.046861708</v>
+      </c>
+      <c r="J16" s="9">
+        <v>17446093.651112419</v>
+      </c>
+      <c r="K16" s="9">
+        <v>33090132.052101489</v>
+      </c>
+      <c r="L16" s="9">
+        <v>22358878.983590614</v>
+      </c>
+      <c r="M16" s="9">
+        <v>189531592.23591474</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C86564E-7195-442B-9542-582DC2DD7756}">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="26.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="39.85546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>2010</v>
+      </c>
+      <c r="B2" s="11">
+        <v>86275377</v>
+      </c>
+      <c r="C2" s="11">
+        <v>76573948</v>
+      </c>
+      <c r="D2" s="11">
+        <v>16971716</v>
+      </c>
+      <c r="E2" s="11">
+        <v>20578219</v>
+      </c>
+      <c r="F2" s="11">
+        <v>24010104</v>
+      </c>
+      <c r="G2" s="11">
+        <v>51858610</v>
+      </c>
+      <c r="H2" s="11">
+        <v>91295022</v>
+      </c>
+      <c r="I2" s="11">
+        <v>83715026</v>
+      </c>
+      <c r="J2" s="11">
+        <v>17053023</v>
+      </c>
+      <c r="K2" s="11">
+        <v>22810967</v>
+      </c>
+      <c r="L2" s="11">
+        <v>31172000</v>
+      </c>
+      <c r="M2" s="11">
+        <v>63455993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="11">
+        <v>98772814</v>
+      </c>
+      <c r="C3" s="11">
+        <v>90385200</v>
+      </c>
+      <c r="D3" s="11">
+        <v>17759188</v>
+      </c>
+      <c r="E3" s="11">
+        <v>23753549</v>
+      </c>
+      <c r="F3" s="11">
+        <v>32141125</v>
+      </c>
+      <c r="G3" s="11">
+        <v>65266249</v>
+      </c>
+      <c r="H3" s="11">
+        <v>98190317</v>
+      </c>
+      <c r="I3" s="11">
+        <v>91185871</v>
+      </c>
+      <c r="J3" s="11">
+        <v>17919110</v>
+      </c>
+      <c r="K3" s="11">
+        <v>24030815</v>
+      </c>
+      <c r="L3" s="11">
+        <v>32105110</v>
+      </c>
+      <c r="M3" s="11">
+        <v>67050590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2012</v>
+      </c>
+      <c r="B4" s="11">
+        <v>105480184</v>
+      </c>
+      <c r="C4" s="11">
+        <v>96677556</v>
+      </c>
+      <c r="D4" s="11">
+        <v>19184188</v>
+      </c>
+      <c r="E4" s="11">
+        <v>25524643</v>
+      </c>
+      <c r="F4" s="11">
+        <v>32838988</v>
+      </c>
+      <c r="G4" s="11">
+        <v>68745190</v>
+      </c>
+      <c r="H4" s="11">
+        <v>98190317</v>
+      </c>
+      <c r="I4" s="11">
+        <v>91185871</v>
+      </c>
+      <c r="J4" s="11">
+        <v>17919110</v>
+      </c>
+      <c r="K4" s="11">
+        <v>24030815</v>
+      </c>
+      <c r="L4" s="11">
+        <v>32105110</v>
+      </c>
+      <c r="M4" s="11">
+        <v>67050590</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="11">
+        <v>119532871</v>
+      </c>
+      <c r="C5" s="11">
+        <v>107345998</v>
+      </c>
+      <c r="D5" s="11">
+        <v>20032855</v>
+      </c>
+      <c r="E5" s="11">
+        <v>29809347</v>
+      </c>
+      <c r="F5" s="11">
+        <v>38361222</v>
+      </c>
+      <c r="G5" s="11">
+        <v>76016551</v>
+      </c>
+      <c r="H5" s="11">
+        <v>115019670</v>
+      </c>
+      <c r="I5" s="11">
+        <v>102846641</v>
+      </c>
+      <c r="J5" s="11">
+        <v>19165675</v>
+      </c>
+      <c r="K5" s="11">
+        <v>28602130</v>
+      </c>
+      <c r="L5" s="11">
+        <v>36993161</v>
+      </c>
+      <c r="M5" s="11">
+        <v>72587936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="11">
+        <v>131964258</v>
+      </c>
+      <c r="C6" s="11">
+        <v>121811851</v>
+      </c>
+      <c r="D6" s="11">
+        <v>19904294</v>
+      </c>
+      <c r="E6" s="11">
+        <v>31384493</v>
+      </c>
+      <c r="F6" s="11">
+        <v>41605643</v>
+      </c>
+      <c r="G6" s="11">
+        <v>82742023</v>
+      </c>
+      <c r="H6" s="11">
+        <v>125509067</v>
+      </c>
+      <c r="I6" s="11">
+        <v>113164579</v>
+      </c>
+      <c r="J6" s="11">
+        <v>19811785</v>
+      </c>
+      <c r="K6" s="11">
+        <v>32178644</v>
+      </c>
+      <c r="L6" s="11">
+        <v>38720124</v>
+      </c>
+      <c r="M6" s="11">
+        <v>78366066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="11">
+        <v>146740205</v>
+      </c>
+      <c r="C7" s="11">
+        <v>126825641</v>
+      </c>
+      <c r="D7" s="11">
+        <v>21808220</v>
+      </c>
+      <c r="E7" s="11">
+        <v>35308761</v>
+      </c>
+      <c r="F7" s="11">
+        <v>46673542</v>
+      </c>
+      <c r="G7" s="11">
+        <v>83875958</v>
+      </c>
+      <c r="H7" s="11">
+        <v>131065513</v>
+      </c>
+      <c r="I7" s="11">
+        <v>118194548</v>
+      </c>
+      <c r="J7" s="11">
+        <v>20182525</v>
+      </c>
+      <c r="K7" s="11">
+        <v>29977711</v>
+      </c>
+      <c r="L7" s="11">
+        <v>42676784</v>
+      </c>
+      <c r="M7" s="11">
+        <v>79966056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="11">
+        <v>159010419</v>
+      </c>
+      <c r="C8" s="11">
+        <v>136172858</v>
+      </c>
+      <c r="D8" s="11">
+        <v>24880528</v>
+      </c>
+      <c r="E8" s="11">
+        <v>34961438</v>
+      </c>
+      <c r="F8" s="11">
+        <v>52261158</v>
+      </c>
+      <c r="G8" s="11">
+        <v>89265563</v>
+      </c>
+      <c r="H8" s="11">
+        <v>153557776</v>
+      </c>
+      <c r="I8" s="11">
+        <v>128465999</v>
+      </c>
+      <c r="J8" s="11">
+        <v>22339912</v>
+      </c>
+      <c r="K8" s="11">
+        <v>37795247</v>
+      </c>
+      <c r="L8" s="11">
+        <v>51022182</v>
+      </c>
+      <c r="M8" s="11">
+        <v>86065563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="23">
+        <v>176007293</v>
+      </c>
+      <c r="C9" s="23">
+        <v>150714252</v>
+      </c>
+      <c r="D9" s="23">
+        <v>28142146</v>
+      </c>
+      <c r="E9" s="23">
+        <v>38614159</v>
+      </c>
+      <c r="F9" s="23">
+        <v>57260183</v>
+      </c>
+      <c r="G9" s="23">
+        <v>98723448</v>
+      </c>
+      <c r="H9" s="23">
+        <v>165650077</v>
+      </c>
+      <c r="I9" s="23">
+        <v>143745281</v>
+      </c>
+      <c r="J9" s="23">
+        <v>25412911</v>
+      </c>
+      <c r="K9" s="23">
+        <v>37196101</v>
+      </c>
+      <c r="L9" s="23">
+        <v>58058809</v>
+      </c>
+      <c r="M9" s="23">
+        <v>98763025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="23">
+        <v>189062627</v>
+      </c>
+      <c r="C10" s="23">
+        <v>159027601</v>
+      </c>
+      <c r="D10" s="23">
+        <v>29018318</v>
+      </c>
+      <c r="E10" s="23">
+        <v>50275176</v>
+      </c>
+      <c r="F10" s="23">
+        <v>58035364</v>
+      </c>
+      <c r="G10" s="23">
+        <v>107293830</v>
+      </c>
+      <c r="H10" s="23">
+        <v>183180638</v>
+      </c>
+      <c r="I10" s="23">
+        <v>155498873</v>
+      </c>
+      <c r="J10" s="23">
+        <v>28410968</v>
+      </c>
+      <c r="K10" s="23">
+        <v>46693317</v>
+      </c>
+      <c r="L10" s="23">
+        <v>59628770</v>
+      </c>
+      <c r="M10" s="23">
+        <v>107051290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>2019</v>
+      </c>
+      <c r="B11" s="23">
+        <v>206256239</v>
+      </c>
+      <c r="C11" s="23">
+        <v>172799918</v>
+      </c>
+      <c r="D11" s="23">
+        <v>33758291</v>
+      </c>
+      <c r="E11" s="23">
+        <v>51777869</v>
+      </c>
+      <c r="F11" s="23">
+        <v>64333559</v>
+      </c>
+      <c r="G11" s="23">
+        <v>116413398</v>
+      </c>
+      <c r="H11" s="23">
+        <v>195778725</v>
+      </c>
+      <c r="I11" s="23">
+        <v>164964368</v>
+      </c>
+      <c r="J11" s="23">
+        <v>30121507</v>
+      </c>
+      <c r="K11" s="23">
+        <v>51834628</v>
+      </c>
+      <c r="L11" s="23">
+        <v>62780910</v>
+      </c>
+      <c r="M11" s="23">
+        <v>113922687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="11">
+        <v>199733684</v>
+      </c>
+      <c r="C12" s="11">
+        <v>162226503</v>
+      </c>
+      <c r="D12" s="11">
+        <v>36653529</v>
+      </c>
+      <c r="E12" s="11">
+        <v>47665335</v>
+      </c>
+      <c r="F12" s="11">
+        <v>55754332</v>
+      </c>
+      <c r="G12" s="11">
+        <v>102566015</v>
+      </c>
+      <c r="H12" s="11">
+        <v>189186518</v>
+      </c>
+      <c r="I12" s="11">
+        <v>159147247</v>
+      </c>
+      <c r="J12" s="11">
+        <v>35529544</v>
+      </c>
+      <c r="K12" s="11">
+        <v>45039729</v>
+      </c>
+      <c r="L12" s="11">
+        <v>54769541</v>
+      </c>
+      <c r="M12" s="11">
+        <v>105299543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="11">
+        <v>242078629</v>
+      </c>
+      <c r="C13" s="11">
+        <v>199601903</v>
+      </c>
+      <c r="D13" s="11">
+        <v>43244564</v>
+      </c>
+      <c r="E13" s="11">
+        <v>65012941</v>
+      </c>
+      <c r="F13" s="11">
+        <v>74194165</v>
+      </c>
+      <c r="G13" s="11">
+        <v>139974944</v>
+      </c>
+      <c r="H13" s="11">
+        <v>227556586</v>
+      </c>
+      <c r="I13" s="11">
+        <v>190327617</v>
+      </c>
+      <c r="J13" s="11">
+        <v>37917912</v>
+      </c>
+      <c r="K13" s="11">
+        <v>58128227</v>
+      </c>
+      <c r="L13" s="11">
+        <v>65526926</v>
+      </c>
+      <c r="M13" s="11">
+        <v>124344096</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="23">
+        <v>274488063.25880164</v>
+      </c>
+      <c r="C14" s="23">
+        <v>230269646.75323898</v>
+      </c>
+      <c r="D14" s="23">
+        <v>50680752.400633499</v>
+      </c>
+      <c r="E14" s="23">
+        <v>74963869.053336978</v>
+      </c>
+      <c r="F14" s="23">
+        <v>113161709.55836214</v>
+      </c>
+      <c r="G14" s="23">
+        <v>194587914.50676993</v>
+      </c>
+      <c r="H14" s="23">
+        <v>230827174.85915086</v>
+      </c>
+      <c r="I14" s="23">
+        <v>190052548.6887958</v>
+      </c>
+      <c r="J14" s="23">
+        <v>47051411.857273847</v>
+      </c>
+      <c r="K14" s="23">
+        <v>62961687.921884127</v>
+      </c>
+      <c r="L14" s="23">
+        <v>96217491.186177894</v>
+      </c>
+      <c r="M14" s="23">
+        <v>165455964.79498085</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="11">
+        <v>303554038</v>
+      </c>
+      <c r="C15" s="11">
+        <v>255673592</v>
+      </c>
+      <c r="D15" s="11">
+        <v>59065983</v>
+      </c>
+      <c r="E15" s="11">
+        <v>60967587</v>
+      </c>
+      <c r="F15" s="11">
+        <v>106585672</v>
+      </c>
+      <c r="G15" s="11">
+        <v>178738796</v>
+      </c>
+      <c r="H15" s="11">
+        <v>277749038</v>
+      </c>
+      <c r="I15" s="11">
+        <v>226464100</v>
+      </c>
+      <c r="J15" s="11">
+        <v>50702357</v>
+      </c>
+      <c r="K15" s="11">
+        <v>66587627</v>
+      </c>
+      <c r="L15" s="11">
+        <v>118627859</v>
+      </c>
+      <c r="M15" s="11">
+        <v>184632904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>2024</v>
+      </c>
+      <c r="B16" s="23">
+        <v>323816824.35723025</v>
+      </c>
+      <c r="C16" s="23">
+        <v>275086994.44441813</v>
+      </c>
+      <c r="D16" s="23">
+        <v>63974454.459399216</v>
+      </c>
+      <c r="E16" s="23">
+        <v>68426473.386885107</v>
+      </c>
+      <c r="F16" s="23">
+        <v>101722350.65343098</v>
+      </c>
+      <c r="G16" s="23">
+        <v>185393448.58690301</v>
+      </c>
+      <c r="H16" s="23">
+        <v>303866878.96958101</v>
+      </c>
+      <c r="I16" s="23">
+        <v>261739443.1261155</v>
+      </c>
+      <c r="J16" s="23">
+        <v>58101723.493214905</v>
+      </c>
+      <c r="K16" s="23">
+        <v>70888928.054537758</v>
+      </c>
+      <c r="L16" s="23">
+        <v>101232105.54935327</v>
+      </c>
+      <c r="M16" s="23">
+        <v>188095321.25364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5958FE6E-4604-4B72-A642-DC4E97D5FA20}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="31" style="8" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="32.42578125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16" style="8" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="26.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="8" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="14.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="31" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16" style="6" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="26.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="6" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="C2" s="8">
+        <v>3097</v>
+      </c>
+      <c r="D2" s="8">
+        <v>543.29999999999995</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2506.1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>47.3</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H2" s="12">
+        <v>45659.199999999997</v>
+      </c>
+      <c r="I2" s="12">
+        <v>140.69999999999999</v>
+      </c>
+      <c r="J2" s="12">
+        <v>14224.7</v>
+      </c>
+      <c r="K2" s="12">
+        <v>52.3</v>
+      </c>
+      <c r="L2" s="12">
+        <v>83.8</v>
+      </c>
+      <c r="M2" s="12">
+        <v>31157.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8">
+        <v>4612.1000000000004</v>
+      </c>
+      <c r="D3" s="8">
+        <v>623.6</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3940.5</v>
+      </c>
+      <c r="F3" s="8">
+        <v>47.6</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H3" s="12">
+        <v>47648.9</v>
+      </c>
+      <c r="I3" s="12">
+        <v>156.5</v>
+      </c>
+      <c r="J3" s="12">
+        <v>14701.4</v>
+      </c>
+      <c r="K3" s="12">
+        <v>45.7</v>
+      </c>
+      <c r="L3" s="12">
+        <v>185.9</v>
+      </c>
+      <c r="M3" s="12">
+        <v>32559.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8">
+        <v>5747.7</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1046</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4660.3999999999996</v>
+      </c>
+      <c r="F4" s="8">
+        <v>41</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="12">
+        <v>51546.8</v>
+      </c>
+      <c r="I4" s="12">
+        <v>178.6</v>
+      </c>
+      <c r="J4" s="12">
+        <v>15282.3</v>
+      </c>
+      <c r="K4" s="12">
+        <v>39</v>
+      </c>
+      <c r="L4" s="12">
+        <v>365.4</v>
+      </c>
+      <c r="M4" s="12">
+        <v>35681.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9">
+        <v>6254.3</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1104.7</v>
+      </c>
+      <c r="E5" s="8">
+        <v>5117.1000000000004</v>
+      </c>
+      <c r="F5" s="8">
+        <v>32.1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="12">
+        <v>52124.3</v>
+      </c>
+      <c r="I5" s="12">
+        <v>121.8</v>
+      </c>
+      <c r="J5" s="12">
+        <v>15048.8</v>
+      </c>
+      <c r="K5" s="12">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="L5" s="12">
+        <v>203</v>
+      </c>
+      <c r="M5" s="12">
+        <v>36718.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
+        <v>4585.8999999999996</v>
+      </c>
+      <c r="D6" s="9">
+        <v>938.5</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3620.4</v>
+      </c>
+      <c r="F6" s="8">
+        <v>26.7</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="12">
+        <v>51749.7</v>
+      </c>
+      <c r="I6" s="12">
+        <v>127.1</v>
+      </c>
+      <c r="J6" s="12">
+        <v>16098.6</v>
+      </c>
+      <c r="K6" s="12">
         <v>24</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="L6" s="12">
+        <v>107.3</v>
+      </c>
+      <c r="M6" s="12">
+        <v>35392.699999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10">
-        <v>3097</v>
-      </c>
-      <c r="D2" s="10">
-        <v>543.29999999999995</v>
-      </c>
-      <c r="E2" s="10">
-        <v>2506.1</v>
-      </c>
-      <c r="F2" s="10">
-        <v>47.3</v>
-      </c>
-      <c r="G2" s="11">
+      <c r="C7" s="9">
+        <v>4655.7</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1060.4000000000001</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3554.6</v>
+      </c>
+      <c r="F7" s="8">
+        <v>40.5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="12">
+        <v>57937.2</v>
+      </c>
+      <c r="I7" s="12">
+        <v>145.9</v>
+      </c>
+      <c r="J7" s="12">
+        <v>16697.099999999999</v>
+      </c>
+      <c r="K7" s="12">
+        <v>60.4</v>
+      </c>
+      <c r="L7" s="12">
+        <v>275.3</v>
+      </c>
+      <c r="M7" s="12">
+        <v>40758.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9">
+        <v>5624.3</v>
+      </c>
+      <c r="D8" s="9">
+        <v>976.1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4611.5</v>
+      </c>
+      <c r="F8" s="8">
+        <v>36.4</v>
+      </c>
+      <c r="G8" s="9">
         <v>0.3</v>
       </c>
-      <c r="H2" s="14">
-        <v>45659.199999999997</v>
-      </c>
-      <c r="I2" s="14">
-        <v>140.69999999999999</v>
-      </c>
-      <c r="J2" s="14">
-        <v>14224.7</v>
-      </c>
-      <c r="K2" s="14">
-        <v>52.3</v>
-      </c>
-      <c r="L2" s="14">
-        <v>83.8</v>
-      </c>
-      <c r="M2" s="14">
-        <v>31157.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H8" s="12">
+        <v>63910.9</v>
+      </c>
+      <c r="I8" s="12">
+        <v>147.9</v>
+      </c>
+      <c r="J8" s="12">
+        <v>20972.6</v>
+      </c>
+      <c r="K8" s="12">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="L8" s="12">
+        <v>507.4</v>
+      </c>
+      <c r="M8" s="12">
+        <v>42262.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9">
+        <v>5971.6</v>
+      </c>
+      <c r="D9" s="9">
+        <v>844</v>
+      </c>
+      <c r="E9" s="8">
+        <v>5095</v>
+      </c>
+      <c r="F9" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H9" s="12">
+        <v>72778.899999999994</v>
+      </c>
+      <c r="I9" s="12">
+        <v>151.30000000000001</v>
+      </c>
+      <c r="J9" s="12">
+        <v>25700.5</v>
+      </c>
+      <c r="K9" s="12">
+        <v>28.4</v>
+      </c>
+      <c r="L9" s="12">
+        <v>310.2</v>
+      </c>
+      <c r="M9" s="12">
+        <v>46588.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9">
+        <v>4022.9</v>
+      </c>
+      <c r="D10" s="9">
+        <v>821.4</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3171.6</v>
+      </c>
+      <c r="F10" s="8">
+        <v>29.5</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H10" s="12">
+        <v>67437.2</v>
+      </c>
+      <c r="I10" s="12">
+        <v>180.8</v>
+      </c>
+      <c r="J10" s="12">
+        <v>20865.099999999999</v>
+      </c>
+      <c r="K10" s="12">
+        <v>24.3</v>
+      </c>
+      <c r="L10" s="12">
+        <v>249.3</v>
+      </c>
+      <c r="M10" s="12">
+        <v>46117.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4172.6000000000004</v>
+      </c>
+      <c r="D11" s="8">
+        <v>862.3</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3273.1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>36.9</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="12">
+        <v>66165.2</v>
+      </c>
+      <c r="I11" s="12">
+        <v>181.5</v>
+      </c>
+      <c r="J11" s="12">
+        <v>20243.5</v>
+      </c>
+      <c r="K11" s="12">
+        <v>44.2</v>
+      </c>
+      <c r="L11" s="12">
+        <v>275.7</v>
+      </c>
+      <c r="M11" s="12">
+        <v>45420.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10">
-        <v>4612.1000000000004</v>
-      </c>
-      <c r="D3" s="10">
-        <v>623.6</v>
-      </c>
-      <c r="E3" s="10">
-        <v>3940.5</v>
-      </c>
-      <c r="F3" s="10">
-        <v>47.6</v>
-      </c>
-      <c r="G3" s="11">
+      <c r="C12" s="8">
+        <v>5441.3</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1210.5999999999999</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4194.6000000000004</v>
+      </c>
+      <c r="F12" s="8">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="12">
+        <v>66536.399999999994</v>
+      </c>
+      <c r="I12" s="12">
+        <v>210.5</v>
+      </c>
+      <c r="J12" s="12">
+        <v>21345.8</v>
+      </c>
+      <c r="K12" s="12">
+        <v>35.5</v>
+      </c>
+      <c r="L12" s="12">
+        <v>443.4</v>
+      </c>
+      <c r="M12" s="12">
+        <v>44501.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8">
+        <v>6127.6</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1053.0999999999999</v>
+      </c>
+      <c r="E13" s="8">
+        <v>5038.5</v>
+      </c>
+      <c r="F13" s="8">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="G13" s="9">
         <v>0.4</v>
       </c>
-      <c r="H3" s="14">
-        <v>47648.9</v>
-      </c>
-      <c r="I3" s="14">
-        <v>156.5</v>
-      </c>
-      <c r="J3" s="14">
-        <v>14701.4</v>
-      </c>
-      <c r="K3" s="14">
-        <v>45.7</v>
-      </c>
-      <c r="L3" s="14">
-        <v>185.9</v>
-      </c>
-      <c r="M3" s="14">
-        <v>32559.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="H13" s="12">
+        <v>73317.5</v>
+      </c>
+      <c r="I13" s="12">
+        <v>201.5</v>
+      </c>
+      <c r="J13" s="12">
+        <v>22994.400000000001</v>
+      </c>
+      <c r="K13" s="12">
+        <v>24.2</v>
+      </c>
+      <c r="L13" s="12">
+        <v>290.89999999999998</v>
+      </c>
+      <c r="M13" s="12">
+        <v>49806.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4016.3</v>
+      </c>
+      <c r="D14" s="8">
+        <v>627.70000000000005</v>
+      </c>
+      <c r="E14" s="8">
+        <v>3358.4</v>
+      </c>
+      <c r="F14" s="8">
+        <v>29.8</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H14" s="12">
+        <v>74575.199999999997</v>
+      </c>
+      <c r="I14" s="12">
+        <v>157.5</v>
+      </c>
+      <c r="J14" s="12">
+        <v>25519.9</v>
+      </c>
+      <c r="K14" s="12">
+        <v>22.2</v>
+      </c>
+      <c r="L14" s="12">
+        <v>263.8</v>
+      </c>
+      <c r="M14" s="12">
+        <v>48611.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4862.8</v>
+      </c>
+      <c r="D15" s="8">
+        <v>704.7</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4122.7</v>
+      </c>
+      <c r="F15" s="8">
+        <v>35</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H15" s="12">
+        <v>66760.899999999994</v>
+      </c>
+      <c r="I15" s="12">
+        <v>152.30000000000001</v>
+      </c>
+      <c r="J15" s="12">
+        <v>26847.599999999999</v>
+      </c>
+      <c r="K15" s="12">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="L15" s="12">
+        <v>361.6</v>
+      </c>
+      <c r="M15" s="12">
+        <v>39364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5362.5</v>
+      </c>
+      <c r="D16" s="8">
+        <v>619.20000000000005</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4702.6000000000004</v>
+      </c>
+      <c r="F16" s="8">
+        <v>40.4</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="12">
+        <v>88329</v>
+      </c>
+      <c r="I16" s="12">
+        <v>148.5</v>
+      </c>
+      <c r="J16" s="12">
+        <v>27741</v>
+      </c>
+      <c r="K16" s="12">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="L16" s="12">
+        <v>532.1</v>
+      </c>
+      <c r="M16" s="12">
+        <v>59867.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10">
-        <v>5747.7</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1046</v>
-      </c>
-      <c r="E4" s="10">
-        <v>4660.3999999999996</v>
-      </c>
-      <c r="F4" s="10">
-        <v>41</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="C17" s="8">
+        <v>5971.1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>505.8</v>
+      </c>
+      <c r="E17" s="8">
+        <v>5431.9</v>
+      </c>
+      <c r="F17" s="8">
+        <v>33</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H17" s="12">
+        <v>77963.8</v>
+      </c>
+      <c r="I17" s="12">
+        <v>131.5</v>
+      </c>
+      <c r="J17" s="12">
+        <v>24920.400000000001</v>
+      </c>
+      <c r="K17" s="12">
+        <v>30.6</v>
+      </c>
+      <c r="L17" s="12">
+        <v>404.3</v>
+      </c>
+      <c r="M17" s="12">
+        <v>52477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3924.5</v>
+      </c>
+      <c r="D18" s="8">
+        <v>501.1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>3394</v>
+      </c>
+      <c r="F18" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="G18" s="9">
         <v>0.3</v>
       </c>
-      <c r="H4" s="14">
-        <v>51546.8</v>
-      </c>
-      <c r="I4" s="14">
-        <v>178.6</v>
-      </c>
-      <c r="J4" s="14">
-        <v>15282.3</v>
-      </c>
-      <c r="K4" s="14">
-        <v>39</v>
-      </c>
-      <c r="L4" s="14">
-        <v>365.4</v>
-      </c>
-      <c r="M4" s="14">
-        <v>35681.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="11">
-        <v>6254.3</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1104.7</v>
-      </c>
-      <c r="E5" s="10">
-        <v>5117.1000000000004</v>
-      </c>
-      <c r="F5" s="10">
-        <v>32.1</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="H5" s="14">
-        <v>52124.3</v>
-      </c>
-      <c r="I5" s="14">
-        <v>121.8</v>
-      </c>
-      <c r="J5" s="14">
-        <v>15048.8</v>
-      </c>
-      <c r="K5" s="14">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="L5" s="14">
-        <v>203</v>
-      </c>
-      <c r="M5" s="14">
-        <v>36718.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="H18" s="12">
+        <v>82252.600000000006</v>
+      </c>
+      <c r="I18" s="12">
+        <v>105</v>
+      </c>
+      <c r="J18" s="12">
+        <v>27751.3</v>
+      </c>
+      <c r="K18" s="12">
+        <v>25.5</v>
+      </c>
+      <c r="L18" s="12">
+        <v>346.7</v>
+      </c>
+      <c r="M18" s="12">
+        <v>54024.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>2025</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11">
-        <v>4585.8999999999996</v>
-      </c>
-      <c r="D6" s="11">
-        <v>938.5</v>
-      </c>
-      <c r="E6" s="10">
-        <v>3620.4</v>
-      </c>
-      <c r="F6" s="10">
-        <v>26.7</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="H6" s="14">
-        <v>51749.7</v>
-      </c>
-      <c r="I6" s="14">
-        <v>127.1</v>
-      </c>
-      <c r="J6" s="14">
-        <v>16098.6</v>
-      </c>
-      <c r="K6" s="14">
-        <v>24</v>
-      </c>
-      <c r="L6" s="14">
-        <v>107.3</v>
-      </c>
-      <c r="M6" s="14">
-        <v>35392.699999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="11">
-        <v>4655.7</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1060.4000000000001</v>
-      </c>
-      <c r="E7" s="10">
-        <v>3554.6</v>
-      </c>
-      <c r="F7" s="10">
-        <v>40.5</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="C19" s="9">
+        <v>4510.6000000000004</v>
+      </c>
+      <c r="D19" s="9">
+        <v>522.20000000000005</v>
+      </c>
+      <c r="E19" s="11">
+        <v>3947.3</v>
+      </c>
+      <c r="F19" s="9">
+        <v>40.9</v>
+      </c>
+      <c r="G19" s="11">
         <v>0.2</v>
       </c>
-      <c r="H7" s="14">
-        <v>57937.2</v>
-      </c>
-      <c r="I7" s="14">
-        <v>145.9</v>
-      </c>
-      <c r="J7" s="14">
-        <v>16697.099999999999</v>
-      </c>
-      <c r="K7" s="14">
-        <v>60.4</v>
-      </c>
-      <c r="L7" s="14">
-        <v>275.3</v>
-      </c>
-      <c r="M7" s="14">
-        <v>40758.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="11">
-        <v>5624.3</v>
-      </c>
-      <c r="D8" s="11">
-        <v>976.1</v>
-      </c>
-      <c r="E8" s="10">
-        <v>4611.5</v>
-      </c>
-      <c r="F8" s="10">
-        <v>36.4</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="H8" s="14">
-        <v>63910.9</v>
-      </c>
-      <c r="I8" s="14">
-        <v>147.9</v>
-      </c>
-      <c r="J8" s="14">
-        <v>20972.6</v>
-      </c>
-      <c r="K8" s="14">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="L8" s="14">
-        <v>507.4</v>
-      </c>
-      <c r="M8" s="14">
-        <v>42262.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11">
-        <v>5971.6</v>
-      </c>
-      <c r="D9" s="11">
-        <v>844</v>
-      </c>
-      <c r="E9" s="10">
-        <v>5095</v>
-      </c>
-      <c r="F9" s="10">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="H9" s="14">
-        <v>72778.899999999994</v>
-      </c>
-      <c r="I9" s="14">
-        <v>151.30000000000001</v>
-      </c>
-      <c r="J9" s="14">
-        <v>25700.5</v>
-      </c>
-      <c r="K9" s="14">
-        <v>28.4</v>
-      </c>
-      <c r="L9" s="14">
-        <v>310.2</v>
-      </c>
-      <c r="M9" s="14">
-        <v>46588.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="11">
-        <v>4022.9</v>
-      </c>
-      <c r="D10" s="11">
-        <v>821.4</v>
-      </c>
-      <c r="E10" s="10">
-        <v>3171.6</v>
-      </c>
-      <c r="F10" s="10">
-        <v>29.5</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="H10" s="14">
-        <v>67437.2</v>
-      </c>
-      <c r="I10" s="14">
-        <v>180.8</v>
-      </c>
-      <c r="J10" s="14">
-        <v>20865.099999999999</v>
-      </c>
-      <c r="K10" s="14">
-        <v>24.3</v>
-      </c>
-      <c r="L10" s="14">
-        <v>249.3</v>
-      </c>
-      <c r="M10" s="14">
-        <v>46117.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10">
-        <v>4172.6000000000004</v>
-      </c>
-      <c r="D11" s="10">
-        <v>862.3</v>
-      </c>
-      <c r="E11" s="10">
-        <v>3273.1</v>
-      </c>
-      <c r="F11" s="10">
-        <v>36.9</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="H11" s="14">
-        <v>66165.2</v>
-      </c>
-      <c r="I11" s="14">
-        <v>181.5</v>
-      </c>
-      <c r="J11" s="14">
-        <v>20243.5</v>
-      </c>
-      <c r="K11" s="14">
-        <v>44.2</v>
-      </c>
-      <c r="L11" s="14">
-        <v>275.7</v>
-      </c>
-      <c r="M11" s="14">
-        <v>45420.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="10">
-        <v>5441.3</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1210.5999999999999</v>
-      </c>
-      <c r="E12" s="10">
-        <v>4194.6000000000004</v>
-      </c>
-      <c r="F12" s="10">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="H12" s="14">
-        <v>66536.399999999994</v>
-      </c>
-      <c r="I12" s="14">
-        <v>210.5</v>
-      </c>
-      <c r="J12" s="14">
-        <v>21345.8</v>
-      </c>
-      <c r="K12" s="14">
-        <v>35.5</v>
-      </c>
-      <c r="L12" s="14">
-        <v>443.4</v>
-      </c>
-      <c r="M12" s="14">
-        <v>44501.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="10">
-        <v>6127.6</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1053.0999999999999</v>
-      </c>
-      <c r="E13" s="10">
-        <v>5038.5</v>
-      </c>
-      <c r="F13" s="10">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="H13" s="14">
-        <v>73317.5</v>
-      </c>
-      <c r="I13" s="14">
-        <v>201.5</v>
-      </c>
-      <c r="J13" s="14">
-        <v>22994.400000000001</v>
-      </c>
-      <c r="K13" s="14">
-        <v>24.2</v>
-      </c>
-      <c r="L13" s="14">
-        <v>290.89999999999998</v>
-      </c>
-      <c r="M13" s="14">
-        <v>49806.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="10">
-        <v>4016.3</v>
-      </c>
-      <c r="D14" s="10">
-        <v>627.70000000000005</v>
-      </c>
-      <c r="E14" s="10">
-        <v>3358.4</v>
-      </c>
-      <c r="F14" s="10">
-        <v>29.8</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="H14" s="14">
-        <v>74575.199999999997</v>
-      </c>
-      <c r="I14" s="14">
-        <v>157.5</v>
-      </c>
-      <c r="J14" s="14">
-        <v>25519.9</v>
-      </c>
-      <c r="K14" s="14">
-        <v>22.2</v>
-      </c>
-      <c r="L14" s="14">
-        <v>263.8</v>
-      </c>
-      <c r="M14" s="14">
-        <v>48611.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="10">
-        <v>4862.8</v>
-      </c>
-      <c r="D15" s="10">
-        <v>704.7</v>
-      </c>
-      <c r="E15" s="10">
-        <v>4122.7</v>
-      </c>
-      <c r="F15" s="10">
-        <v>35</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="H15" s="14">
-        <v>66760.899999999994</v>
-      </c>
-      <c r="I15" s="14">
-        <v>152.30000000000001</v>
-      </c>
-      <c r="J15" s="14">
-        <v>26847.599999999999</v>
-      </c>
-      <c r="K15" s="14">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="L15" s="14">
-        <v>361.6</v>
-      </c>
-      <c r="M15" s="14">
-        <v>39364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="10">
-        <v>5362.5</v>
-      </c>
-      <c r="D16" s="10">
-        <v>619.20000000000005</v>
-      </c>
-      <c r="E16" s="10">
-        <v>4702.6000000000004</v>
-      </c>
-      <c r="F16" s="10">
-        <v>40.4</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="H16" s="14">
-        <v>88329</v>
-      </c>
-      <c r="I16" s="14">
-        <v>148.5</v>
-      </c>
-      <c r="J16" s="14">
-        <v>27741</v>
-      </c>
-      <c r="K16" s="14">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="L16" s="14">
-        <v>532.1</v>
-      </c>
-      <c r="M16" s="14">
-        <v>59867.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="10">
-        <v>5971.1</v>
-      </c>
-      <c r="D17" s="10">
-        <v>505.8</v>
-      </c>
-      <c r="E17" s="10">
-        <v>5431.9</v>
-      </c>
-      <c r="F17" s="10">
-        <v>33</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="H17" s="14">
-        <v>77963.8</v>
-      </c>
-      <c r="I17" s="14">
-        <v>131.5</v>
-      </c>
-      <c r="J17" s="14">
-        <v>24920.400000000001</v>
-      </c>
-      <c r="K17" s="14">
-        <v>30.6</v>
-      </c>
-      <c r="L17" s="14">
-        <v>404.3</v>
-      </c>
-      <c r="M17" s="14">
-        <v>52477</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="10">
-        <v>3924.5</v>
-      </c>
-      <c r="D18" s="10">
-        <v>501.1</v>
-      </c>
-      <c r="E18" s="10">
-        <v>3394</v>
-      </c>
-      <c r="F18" s="10">
-        <v>29.1</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="H18" s="14">
-        <v>82252.600000000006</v>
-      </c>
-      <c r="I18" s="14">
-        <v>105</v>
-      </c>
-      <c r="J18" s="14">
-        <v>27751.3</v>
-      </c>
-      <c r="K18" s="14">
-        <v>25.5</v>
-      </c>
-      <c r="L18" s="14">
-        <v>346.7</v>
-      </c>
-      <c r="M18" s="14">
-        <v>54024.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>2025</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="11">
-        <v>4510.6000000000004</v>
-      </c>
-      <c r="D19" s="11">
-        <v>522.20000000000005</v>
-      </c>
-      <c r="E19" s="13">
-        <v>3947.3</v>
-      </c>
-      <c r="F19" s="11">
-        <v>40.9</v>
-      </c>
-      <c r="G19" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="H19" s="8">
+      <c r="H19" s="6">
         <v>82028.7</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="6">
         <v>75</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="6">
         <v>27696.3</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="6">
         <v>36.5</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="6">
         <v>491.5</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="6">
         <v>53729.4</v>
       </c>
     </row>
@@ -1913,8 +3430,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657D5A45-2ADC-4DD2-AEEC-998D0382C5EC}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DD8044-9C85-49FC-8BC1-16C6E08FA37D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/Real.xlsx
+++ b/data/Real.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MDED\Comert exterior\COD_PAGE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05CD818-7CD7-4D1C-A5D4-33445B70F0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FAF783-B916-4649-A4DC-2CF68C355C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Real" sheetId="1" r:id="rId1"/>
     <sheet name="PIB" sheetId="3" r:id="rId2"/>
     <sheet name="PIB_utilizari" sheetId="5" r:id="rId3"/>
-    <sheet name="Tranport" sheetId="2" r:id="rId4"/>
-    <sheet name="Comert" sheetId="4" r:id="rId5"/>
+    <sheet name="Industrie" sheetId="6" r:id="rId4"/>
+    <sheet name="Industrie (2)" sheetId="8" r:id="rId5"/>
+    <sheet name="Industrie_Prel" sheetId="7" r:id="rId6"/>
+    <sheet name="Tranport" sheetId="2" r:id="rId7"/>
+    <sheet name="Comert" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
   <si>
     <t>An</t>
   </si>
@@ -183,6 +186,87 @@
   </si>
   <si>
     <t>Import comparabil</t>
+  </si>
+  <si>
+    <t>Industria total,%</t>
+  </si>
+  <si>
+    <t>Industria prelucratoare</t>
+  </si>
+  <si>
+    <t>Industria extractivă</t>
+  </si>
+  <si>
+    <t>Industria energetică</t>
+  </si>
+  <si>
+    <t>Industria alimentara</t>
+  </si>
+  <si>
+    <t>Fabricarea bauturilor</t>
+  </si>
+  <si>
+    <t>Fabricarea produselor din tutun</t>
+  </si>
+  <si>
+    <t>Fabricarea produselor textile</t>
+  </si>
+  <si>
+    <t>Fabricarea articolelor de imbracaminte</t>
+  </si>
+  <si>
+    <t>Tabacirea si finisarea pieilor</t>
+  </si>
+  <si>
+    <t>Prelucrarea lemnului, fabricarea  produselor din lemn si pluta, cu exceptia mobilei</t>
+  </si>
+  <si>
+    <t>Fabricarea hartiei si a produselor din hartie</t>
+  </si>
+  <si>
+    <t>Tiparire si reproducerea pe suporti a inregistrarilor</t>
+  </si>
+  <si>
+    <t>Fabricarea produselor de cocserie si a produselor obtinute din prelucrarea titeiului</t>
+  </si>
+  <si>
+    <t>Fabricarea substantelor si a produselor chimice</t>
+  </si>
+  <si>
+    <t>Fabricarea produselor farmaceutice de baza si a preparatelor farmaceutice</t>
+  </si>
+  <si>
+    <t>Fabricarea produselor din cauciuc si mase plastice</t>
+  </si>
+  <si>
+    <t>Fabricarea altor produse din minerale nemetalice</t>
+  </si>
+  <si>
+    <t>Industria metalurgica</t>
+  </si>
+  <si>
+    <t>Industria constructiilor metalice si a produselor din metal, exclusiv masini, utilaje si instalatii</t>
+  </si>
+  <si>
+    <t>Fabricarea calculatoarelor si a produselor electronice si optice</t>
+  </si>
+  <si>
+    <t>Fabricarea echipamentelor electrice</t>
+  </si>
+  <si>
+    <t>Fabricarea autovehiculelor, a remorcilor si semiremorcilor</t>
+  </si>
+  <si>
+    <t>Fabricarea de mobila</t>
+  </si>
+  <si>
+    <t>Alte activitati industriale</t>
+  </si>
+  <si>
+    <t>Repararea, intretinerea si instalarea masinilor si echipamentelor</t>
+  </si>
+  <si>
+    <t>Fabricarea de masini, utilaje si echipamente</t>
   </si>
 </sst>
 </file>
@@ -194,7 +278,7 @@
     <numFmt numFmtId="165" formatCode="[$-418]mmmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +341,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -341,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -405,6 +495,16 @@
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -972,10 +1072,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1324,7 @@
         <v>2023</v>
       </c>
       <c r="B15" s="14">
-        <v>303554.037962</v>
+        <v>303554.038</v>
       </c>
       <c r="C15" s="2">
         <v>87596.523400000005</v>
@@ -1235,6 +1335,56 @@
       <c r="E15" s="2">
         <v>5533.8572816180003</v>
       </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B16" s="14">
+        <v>323816.82435723027</v>
+      </c>
+      <c r="C16" s="2">
+        <v>85957.970099999991</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5393.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="24"/>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="C23" s="24"/>
+      <c r="D23"/>
+      <c r="E23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1246,7 +1396,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M4"/>
+      <selection activeCell="B15" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C86564E-7195-442B-9542-582DC2DD7756}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2618,6 +2768,1532 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B987E26-D1E4-466C-9A2C-368AEF8862E6}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="9">
+        <v>113.4</v>
+      </c>
+      <c r="C2" s="9">
+        <v>113.9</v>
+      </c>
+      <c r="D2" s="12">
+        <v>127.2</v>
+      </c>
+      <c r="E2" s="12">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="9">
+        <v>97.6</v>
+      </c>
+      <c r="C3" s="9">
+        <v>99.4</v>
+      </c>
+      <c r="D3" s="12">
+        <v>78.8</v>
+      </c>
+      <c r="E3" s="12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="9">
+        <v>108.6</v>
+      </c>
+      <c r="C4" s="9">
+        <v>110.7</v>
+      </c>
+      <c r="D4" s="12">
+        <v>122.2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="9">
+        <v>107.3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>108.5</v>
+      </c>
+      <c r="D5" s="12">
+        <v>100.2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>104.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="9">
+        <v>100.6</v>
+      </c>
+      <c r="C6" s="9">
+        <v>102.3</v>
+      </c>
+      <c r="D6" s="12">
+        <v>91</v>
+      </c>
+      <c r="E6" s="12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="9">
+        <v>100.9</v>
+      </c>
+      <c r="C7" s="9">
+        <v>101.8</v>
+      </c>
+      <c r="D7" s="12">
+        <v>84.2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="9">
+        <v>103.4</v>
+      </c>
+      <c r="C8" s="9">
+        <v>104.5</v>
+      </c>
+      <c r="D8" s="12">
+        <v>96.3</v>
+      </c>
+      <c r="E8" s="12">
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="9">
+        <v>103.7</v>
+      </c>
+      <c r="C9" s="9">
+        <v>102.8</v>
+      </c>
+      <c r="D9" s="12">
+        <v>109.9</v>
+      </c>
+      <c r="E9" s="12">
+        <v>107.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="9">
+        <v>102</v>
+      </c>
+      <c r="C10" s="9">
+        <v>103.1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>98.1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="9">
+        <v>94.5</v>
+      </c>
+      <c r="C11" s="9">
+        <v>92.9</v>
+      </c>
+      <c r="D11" s="12">
+        <v>109.5</v>
+      </c>
+      <c r="E11" s="12">
+        <v>102.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="9">
+        <v>112.1</v>
+      </c>
+      <c r="C12" s="9">
+        <v>111.4</v>
+      </c>
+      <c r="D12" s="12">
+        <v>111.9</v>
+      </c>
+      <c r="E12" s="12">
+        <v>116.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="9">
+        <v>94.9</v>
+      </c>
+      <c r="C13" s="9">
+        <v>95.5</v>
+      </c>
+      <c r="D13" s="12">
+        <v>95.1</v>
+      </c>
+      <c r="E13" s="12">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="9">
+        <v>96.4</v>
+      </c>
+      <c r="C14" s="9">
+        <v>94.7</v>
+      </c>
+      <c r="D14" s="12">
+        <v>93.5</v>
+      </c>
+      <c r="E14" s="12">
+        <v>105.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>2024</v>
+      </c>
+      <c r="B15" s="9">
+        <v>98.9</v>
+      </c>
+      <c r="C15" s="9">
+        <v>95.5</v>
+      </c>
+      <c r="D15" s="12">
+        <v>110.7</v>
+      </c>
+      <c r="E15" s="12">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEDFD3C-D0A5-489B-A0BE-224D0B97C678}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="9">
+        <v>113.4</v>
+      </c>
+      <c r="C2" s="9">
+        <v>113.9</v>
+      </c>
+      <c r="D2" s="12">
+        <v>127.2</v>
+      </c>
+      <c r="E2" s="12">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="9">
+        <v>97.6</v>
+      </c>
+      <c r="C3" s="9">
+        <v>99.4</v>
+      </c>
+      <c r="D3" s="12">
+        <v>78.8</v>
+      </c>
+      <c r="E3" s="12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="9">
+        <v>108.6</v>
+      </c>
+      <c r="C4" s="9">
+        <v>110.7</v>
+      </c>
+      <c r="D4" s="12">
+        <v>122.2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="9">
+        <v>107.3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>108.5</v>
+      </c>
+      <c r="D5" s="12">
+        <v>100.2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>104.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="9">
+        <v>100.6</v>
+      </c>
+      <c r="C6" s="9">
+        <v>102.3</v>
+      </c>
+      <c r="D6" s="12">
+        <v>91</v>
+      </c>
+      <c r="E6" s="12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="9">
+        <v>100.9</v>
+      </c>
+      <c r="C7" s="9">
+        <v>101.8</v>
+      </c>
+      <c r="D7" s="12">
+        <v>84.2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="9">
+        <v>103.4</v>
+      </c>
+      <c r="C8" s="9">
+        <v>104.5</v>
+      </c>
+      <c r="D8" s="12">
+        <v>96.3</v>
+      </c>
+      <c r="E8" s="12">
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="9">
+        <v>103.7</v>
+      </c>
+      <c r="C9" s="9">
+        <v>102.8</v>
+      </c>
+      <c r="D9" s="12">
+        <v>109.9</v>
+      </c>
+      <c r="E9" s="12">
+        <v>107.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="9">
+        <v>102</v>
+      </c>
+      <c r="C10" s="9">
+        <v>103.1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>98.1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="9">
+        <v>94.5</v>
+      </c>
+      <c r="C11" s="9">
+        <v>92.9</v>
+      </c>
+      <c r="D11" s="12">
+        <v>109.5</v>
+      </c>
+      <c r="E11" s="12">
+        <v>102.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="9">
+        <v>112.1</v>
+      </c>
+      <c r="C12" s="9">
+        <v>111.4</v>
+      </c>
+      <c r="D12" s="12">
+        <v>111.9</v>
+      </c>
+      <c r="E12" s="12">
+        <v>116.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="9">
+        <v>94.9</v>
+      </c>
+      <c r="C13" s="9">
+        <v>95.5</v>
+      </c>
+      <c r="D13" s="12">
+        <v>95.1</v>
+      </c>
+      <c r="E13" s="12">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="9">
+        <v>96.4</v>
+      </c>
+      <c r="C14" s="9">
+        <v>94.7</v>
+      </c>
+      <c r="D14" s="12">
+        <v>93.5</v>
+      </c>
+      <c r="E14" s="12">
+        <v>105.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>2024</v>
+      </c>
+      <c r="B15" s="9">
+        <v>98.9</v>
+      </c>
+      <c r="C15" s="9">
+        <v>95.5</v>
+      </c>
+      <c r="D15" s="12">
+        <v>110.7</v>
+      </c>
+      <c r="E15" s="12">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580FE64E-7DFE-46EE-8AE6-4EC8861C505D}">
+  <dimension ref="A1:AD12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="24.85546875" customWidth="1"/>
+    <col min="19" max="19" width="30.85546875" customWidth="1"/>
+    <col min="20" max="20" width="20.85546875" customWidth="1"/>
+    <col min="21" max="21" width="20" customWidth="1"/>
+    <col min="22" max="22" width="27.7109375" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" customWidth="1"/>
+    <col min="25" max="25" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="27" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="W1" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y1" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B2" s="25">
+        <v>35452307</v>
+      </c>
+      <c r="C2" s="25">
+        <v>13107698</v>
+      </c>
+      <c r="D2" s="25">
+        <v>4574176.3</v>
+      </c>
+      <c r="E2" s="25">
+        <v>332589.8</v>
+      </c>
+      <c r="F2" s="25">
+        <v>1644104.5</v>
+      </c>
+      <c r="G2" s="25">
+        <v>1765940.6</v>
+      </c>
+      <c r="H2" s="25">
+        <v>399498.8</v>
+      </c>
+      <c r="I2" s="25">
+        <v>219150</v>
+      </c>
+      <c r="J2" s="25">
+        <v>507521.5</v>
+      </c>
+      <c r="K2" s="25">
+        <v>394094.3</v>
+      </c>
+      <c r="L2" s="26">
+        <v>0</v>
+      </c>
+      <c r="M2" s="25">
+        <v>871639.5</v>
+      </c>
+      <c r="N2" s="25">
+        <v>499242.7</v>
+      </c>
+      <c r="O2" s="25">
+        <v>1638377.4</v>
+      </c>
+      <c r="P2" s="25">
+        <v>3886121.2</v>
+      </c>
+      <c r="Q2" s="25">
+        <v>89271.1</v>
+      </c>
+      <c r="R2" s="25">
+        <v>1134066.1000000001</v>
+      </c>
+      <c r="S2" s="25">
+        <v>528992.6</v>
+      </c>
+      <c r="T2" s="25">
+        <v>1257940</v>
+      </c>
+      <c r="U2" s="25">
+        <v>541319.5</v>
+      </c>
+      <c r="V2" s="25">
+        <v>164675</v>
+      </c>
+      <c r="W2" s="25">
+        <v>1034688.6</v>
+      </c>
+      <c r="X2" s="25">
+        <v>93966.2</v>
+      </c>
+      <c r="Y2" s="25">
+        <v>568156.69999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B3" s="25">
+        <v>37706603.200000003</v>
+      </c>
+      <c r="C3" s="25">
+        <v>13600242</v>
+      </c>
+      <c r="D3" s="25">
+        <v>4827433.0999999996</v>
+      </c>
+      <c r="E3" s="25">
+        <v>223450.6</v>
+      </c>
+      <c r="F3" s="25">
+        <v>1923807.4</v>
+      </c>
+      <c r="G3" s="25">
+        <v>1973286.7</v>
+      </c>
+      <c r="H3" s="25">
+        <v>397553.1</v>
+      </c>
+      <c r="I3" s="25">
+        <v>301840.59999999998</v>
+      </c>
+      <c r="J3" s="25">
+        <v>530225.69999999995</v>
+      </c>
+      <c r="K3" s="25">
+        <v>416147</v>
+      </c>
+      <c r="L3" s="26">
+        <v>0</v>
+      </c>
+      <c r="M3" s="25">
+        <v>1154580.2</v>
+      </c>
+      <c r="N3" s="25">
+        <v>603798.19999999995</v>
+      </c>
+      <c r="O3" s="25">
+        <v>1629760</v>
+      </c>
+      <c r="P3" s="25">
+        <v>3920834.1</v>
+      </c>
+      <c r="Q3" s="25">
+        <v>85537.9</v>
+      </c>
+      <c r="R3" s="25">
+        <v>1299556.6000000001</v>
+      </c>
+      <c r="S3" s="25">
+        <v>557138.1</v>
+      </c>
+      <c r="T3" s="25">
+        <v>1677812.2</v>
+      </c>
+      <c r="U3" s="25">
+        <v>573730.69999999995</v>
+      </c>
+      <c r="V3" s="25">
+        <v>129994.2</v>
+      </c>
+      <c r="W3" s="25">
+        <v>1071664.2</v>
+      </c>
+      <c r="X3" s="25">
+        <v>115050.1</v>
+      </c>
+      <c r="Y3" s="25">
+        <v>589117.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="25">
+        <v>39654251.399999999</v>
+      </c>
+      <c r="C4" s="25">
+        <v>14664384.800000001</v>
+      </c>
+      <c r="D4" s="25">
+        <v>4463580.5</v>
+      </c>
+      <c r="E4" s="25">
+        <v>221780.5</v>
+      </c>
+      <c r="F4" s="25">
+        <v>2343040.9</v>
+      </c>
+      <c r="G4" s="25">
+        <v>2257192.7000000002</v>
+      </c>
+      <c r="H4" s="25">
+        <v>503248.9</v>
+      </c>
+      <c r="I4" s="25">
+        <v>362683.3</v>
+      </c>
+      <c r="J4" s="25">
+        <v>586543.1</v>
+      </c>
+      <c r="K4" s="25">
+        <v>381484.9</v>
+      </c>
+      <c r="L4" s="25">
+        <v>103252.3</v>
+      </c>
+      <c r="M4" s="25">
+        <v>1595978.9</v>
+      </c>
+      <c r="N4" s="25">
+        <v>595064.5</v>
+      </c>
+      <c r="O4" s="25">
+        <v>1763449.3</v>
+      </c>
+      <c r="P4" s="25">
+        <v>3399451.2</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>82088.899999999994</v>
+      </c>
+      <c r="R4" s="25">
+        <v>1331622.3</v>
+      </c>
+      <c r="S4" s="25">
+        <v>486095.3</v>
+      </c>
+      <c r="T4" s="25">
+        <v>1150096</v>
+      </c>
+      <c r="U4" s="25">
+        <v>606635.69999999995</v>
+      </c>
+      <c r="V4" s="25">
+        <v>850910.4</v>
+      </c>
+      <c r="W4" s="25">
+        <v>1244241</v>
+      </c>
+      <c r="X4" s="25">
+        <v>113036.7</v>
+      </c>
+      <c r="Y4" s="25">
+        <v>535385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="25">
+        <v>43931470</v>
+      </c>
+      <c r="C5" s="25">
+        <v>16156576.300000001</v>
+      </c>
+      <c r="D5" s="25">
+        <v>4942174.7</v>
+      </c>
+      <c r="E5" s="25">
+        <v>157172.79999999999</v>
+      </c>
+      <c r="F5" s="25">
+        <v>2348864.6</v>
+      </c>
+      <c r="G5" s="25">
+        <v>2528436.9</v>
+      </c>
+      <c r="H5" s="25">
+        <v>509826.2</v>
+      </c>
+      <c r="I5" s="25">
+        <v>371749.3</v>
+      </c>
+      <c r="J5" s="25">
+        <v>556395.30000000005</v>
+      </c>
+      <c r="K5" s="25">
+        <v>411758.7</v>
+      </c>
+      <c r="L5" s="25">
+        <v>120474.8</v>
+      </c>
+      <c r="M5" s="25">
+        <v>1708422.6</v>
+      </c>
+      <c r="N5" s="25">
+        <v>650373.69999999995</v>
+      </c>
+      <c r="O5" s="25">
+        <v>2101767.2000000002</v>
+      </c>
+      <c r="P5" s="25">
+        <v>3590849.8</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>85539.5</v>
+      </c>
+      <c r="R5" s="25">
+        <v>1364945.2</v>
+      </c>
+      <c r="S5" s="25">
+        <v>433801.5</v>
+      </c>
+      <c r="T5" s="25">
+        <v>1679764.1</v>
+      </c>
+      <c r="U5" s="25">
+        <v>621715.5</v>
+      </c>
+      <c r="V5" s="25">
+        <v>1379667.7</v>
+      </c>
+      <c r="W5" s="25">
+        <v>1371113.4</v>
+      </c>
+      <c r="X5" s="25">
+        <v>225875.1</v>
+      </c>
+      <c r="Y5" s="25">
+        <v>608595.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="25">
+        <v>46486900.899999999</v>
+      </c>
+      <c r="C6" s="25">
+        <v>15474849.5</v>
+      </c>
+      <c r="D6" s="25">
+        <v>5250684</v>
+      </c>
+      <c r="E6" s="25">
+        <v>107130.3</v>
+      </c>
+      <c r="F6" s="25">
+        <v>2576220</v>
+      </c>
+      <c r="G6" s="25">
+        <v>2653417.6</v>
+      </c>
+      <c r="H6" s="25">
+        <v>526856.9</v>
+      </c>
+      <c r="I6" s="25">
+        <v>456268</v>
+      </c>
+      <c r="J6" s="25">
+        <v>661033.5</v>
+      </c>
+      <c r="K6" s="25">
+        <v>336843.3</v>
+      </c>
+      <c r="L6" s="25">
+        <v>78042.5</v>
+      </c>
+      <c r="M6" s="25">
+        <v>1771563.9</v>
+      </c>
+      <c r="N6" s="25">
+        <v>496534.8</v>
+      </c>
+      <c r="O6" s="25">
+        <v>2077617.6</v>
+      </c>
+      <c r="P6" s="25">
+        <v>4306867.5999999996</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>92621.3</v>
+      </c>
+      <c r="R6" s="25">
+        <v>1437645.4</v>
+      </c>
+      <c r="S6" s="25">
+        <v>390745</v>
+      </c>
+      <c r="T6" s="25">
+        <v>2308340.5</v>
+      </c>
+      <c r="U6" s="25">
+        <v>573595.9</v>
+      </c>
+      <c r="V6" s="25">
+        <v>2564486.9</v>
+      </c>
+      <c r="W6" s="25">
+        <v>1535505.9</v>
+      </c>
+      <c r="X6" s="25">
+        <v>254802.1</v>
+      </c>
+      <c r="Y6" s="25">
+        <v>551068.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="25">
+        <v>49862251.5</v>
+      </c>
+      <c r="C7" s="25">
+        <v>16707925.9</v>
+      </c>
+      <c r="D7" s="25">
+        <v>5217025</v>
+      </c>
+      <c r="E7" s="25">
+        <v>139241</v>
+      </c>
+      <c r="F7" s="25">
+        <v>2531923.2000000002</v>
+      </c>
+      <c r="G7" s="25">
+        <v>2628668.2000000002</v>
+      </c>
+      <c r="H7" s="25">
+        <v>505566.6</v>
+      </c>
+      <c r="I7" s="25">
+        <v>418387.1</v>
+      </c>
+      <c r="J7" s="25">
+        <v>691095.3</v>
+      </c>
+      <c r="K7" s="25">
+        <v>345630.4</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0</v>
+      </c>
+      <c r="M7" s="25">
+        <v>1838941.5</v>
+      </c>
+      <c r="N7" s="25">
+        <v>544319.9</v>
+      </c>
+      <c r="O7" s="25">
+        <v>2338810</v>
+      </c>
+      <c r="P7" s="25">
+        <v>4568932.8</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>117960.3</v>
+      </c>
+      <c r="R7" s="25">
+        <v>1729454.1</v>
+      </c>
+      <c r="S7" s="25">
+        <v>434492.7</v>
+      </c>
+      <c r="T7" s="25">
+        <v>2517491.7000000002</v>
+      </c>
+      <c r="U7" s="25">
+        <v>561570.80000000005</v>
+      </c>
+      <c r="V7" s="25">
+        <v>3454037</v>
+      </c>
+      <c r="W7" s="25">
+        <v>1712021.5</v>
+      </c>
+      <c r="X7" s="25">
+        <v>266239</v>
+      </c>
+      <c r="Y7" s="25">
+        <v>557798.69999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="25">
+        <v>50034868</v>
+      </c>
+      <c r="C8" s="25">
+        <v>16588628.199999999</v>
+      </c>
+      <c r="D8" s="25">
+        <v>4996076</v>
+      </c>
+      <c r="E8" s="25">
+        <v>108697.5</v>
+      </c>
+      <c r="F8" s="25">
+        <v>2704857.6</v>
+      </c>
+      <c r="G8" s="25">
+        <v>2537486.2999999998</v>
+      </c>
+      <c r="H8" s="25">
+        <v>428125.1</v>
+      </c>
+      <c r="I8" s="25">
+        <v>396758.2</v>
+      </c>
+      <c r="J8" s="25">
+        <v>699615.5</v>
+      </c>
+      <c r="K8" s="25">
+        <v>326268.5</v>
+      </c>
+      <c r="L8" s="25">
+        <v>32576.1</v>
+      </c>
+      <c r="M8" s="25">
+        <v>2479730.4</v>
+      </c>
+      <c r="N8" s="25">
+        <v>557284.19999999995</v>
+      </c>
+      <c r="O8" s="25">
+        <v>2392168.2999999998</v>
+      </c>
+      <c r="P8" s="25">
+        <v>5269909.7</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>148598.20000000001</v>
+      </c>
+      <c r="R8" s="25">
+        <v>1795424.5</v>
+      </c>
+      <c r="S8" s="25">
+        <v>338603.5</v>
+      </c>
+      <c r="T8" s="25">
+        <v>2116260.2000000002</v>
+      </c>
+      <c r="U8" s="25">
+        <v>488937.4</v>
+      </c>
+      <c r="V8" s="25">
+        <v>3025018.6</v>
+      </c>
+      <c r="W8" s="25">
+        <v>1844595.4</v>
+      </c>
+      <c r="X8" s="25">
+        <v>269615.3</v>
+      </c>
+      <c r="Y8" s="25">
+        <v>488652.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="25">
+        <v>59282971.100000001</v>
+      </c>
+      <c r="C9" s="25">
+        <v>20208338.199999999</v>
+      </c>
+      <c r="D9" s="25">
+        <v>5627936.7000000002</v>
+      </c>
+      <c r="E9" s="25">
+        <v>337690.5</v>
+      </c>
+      <c r="F9" s="25">
+        <v>3144138.1</v>
+      </c>
+      <c r="G9" s="25">
+        <v>3033293.5</v>
+      </c>
+      <c r="H9" s="25">
+        <v>480485.5</v>
+      </c>
+      <c r="I9" s="25">
+        <v>562949.5</v>
+      </c>
+      <c r="J9" s="25">
+        <v>918311</v>
+      </c>
+      <c r="K9" s="25">
+        <v>359733.8</v>
+      </c>
+      <c r="L9" s="25">
+        <v>43298.3</v>
+      </c>
+      <c r="M9" s="25">
+        <v>2189151.6</v>
+      </c>
+      <c r="N9" s="25">
+        <v>613653.6</v>
+      </c>
+      <c r="O9" s="25">
+        <v>2853803.5</v>
+      </c>
+      <c r="P9" s="25">
+        <v>6177531.5</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>352113.6</v>
+      </c>
+      <c r="R9" s="25">
+        <v>2304307.4</v>
+      </c>
+      <c r="S9" s="25">
+        <v>359185.9</v>
+      </c>
+      <c r="T9" s="25">
+        <v>351220.1</v>
+      </c>
+      <c r="U9" s="25">
+        <v>540908.4</v>
+      </c>
+      <c r="V9" s="25">
+        <v>5432004.4000000004</v>
+      </c>
+      <c r="W9" s="25">
+        <v>2424860.2000000002</v>
+      </c>
+      <c r="X9" s="25">
+        <v>415218.9</v>
+      </c>
+      <c r="Y9" s="25">
+        <v>550506.69999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="25">
+        <v>73705839.099999994</v>
+      </c>
+      <c r="C10" s="25">
+        <v>29605752.399999999</v>
+      </c>
+      <c r="D10" s="25">
+        <v>6859173.9000000004</v>
+      </c>
+      <c r="E10" s="25">
+        <v>192518.9</v>
+      </c>
+      <c r="F10" s="25">
+        <v>3314451.3</v>
+      </c>
+      <c r="G10" s="25">
+        <v>3214813.1</v>
+      </c>
+      <c r="H10" s="25">
+        <v>535717.4</v>
+      </c>
+      <c r="I10" s="25">
+        <v>784399.9</v>
+      </c>
+      <c r="J10" s="25">
+        <v>1300882.8999999999</v>
+      </c>
+      <c r="K10" s="25">
+        <v>407518.6</v>
+      </c>
+      <c r="L10" s="25">
+        <v>56727.4</v>
+      </c>
+      <c r="M10" s="25">
+        <v>2500177.5</v>
+      </c>
+      <c r="N10" s="25">
+        <v>784173.8</v>
+      </c>
+      <c r="O10" s="25">
+        <v>3505035.3</v>
+      </c>
+      <c r="P10" s="25">
+        <v>7623894.2000000002</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>296817.7</v>
+      </c>
+      <c r="R10" s="25">
+        <v>2489363.4</v>
+      </c>
+      <c r="S10" s="25">
+        <v>402778.9</v>
+      </c>
+      <c r="T10" s="25">
+        <v>345370.4</v>
+      </c>
+      <c r="U10" s="25">
+        <v>459295.7</v>
+      </c>
+      <c r="V10" s="25">
+        <v>5269060.9000000004</v>
+      </c>
+      <c r="W10" s="25">
+        <v>2655419.7999999998</v>
+      </c>
+      <c r="X10" s="25">
+        <v>515638</v>
+      </c>
+      <c r="Y10" s="25">
+        <v>585563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="25">
+        <v>73543642.099999994</v>
+      </c>
+      <c r="C11" s="25">
+        <v>28151643.199999999</v>
+      </c>
+      <c r="D11" s="25">
+        <v>7178178.5</v>
+      </c>
+      <c r="E11" s="25">
+        <v>245998.2</v>
+      </c>
+      <c r="F11" s="25">
+        <v>2975973.3</v>
+      </c>
+      <c r="G11" s="25">
+        <v>3083729.1</v>
+      </c>
+      <c r="H11" s="25">
+        <v>488486.1</v>
+      </c>
+      <c r="I11" s="25">
+        <v>771168.2</v>
+      </c>
+      <c r="J11" s="25">
+        <v>1133577.8</v>
+      </c>
+      <c r="K11" s="25">
+        <v>563146</v>
+      </c>
+      <c r="L11" s="25">
+        <v>32847.599999999999</v>
+      </c>
+      <c r="M11" s="25">
+        <v>2085320.8</v>
+      </c>
+      <c r="N11" s="25">
+        <v>1068501.7</v>
+      </c>
+      <c r="O11" s="25">
+        <v>3167704.5</v>
+      </c>
+      <c r="P11" s="25">
+        <v>7806380.9000000004</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>350135</v>
+      </c>
+      <c r="R11" s="25">
+        <v>2720563.6</v>
+      </c>
+      <c r="S11" s="25">
+        <v>485518.3</v>
+      </c>
+      <c r="T11" s="25">
+        <v>378628.8</v>
+      </c>
+      <c r="U11" s="25">
+        <v>439054.7</v>
+      </c>
+      <c r="V11" s="25">
+        <v>6557213.5</v>
+      </c>
+      <c r="W11" s="25">
+        <v>2718237.8</v>
+      </c>
+      <c r="X11" s="25">
+        <v>554011.9</v>
+      </c>
+      <c r="Y11" s="25">
+        <v>586633.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>2024</v>
+      </c>
+      <c r="B12" s="25">
+        <v>71683849.099999994</v>
+      </c>
+      <c r="C12" s="25">
+        <v>24596854.899999999</v>
+      </c>
+      <c r="D12" s="25">
+        <v>7635415.5</v>
+      </c>
+      <c r="E12" s="25">
+        <v>214576.1</v>
+      </c>
+      <c r="F12" s="25">
+        <v>2632655.1</v>
+      </c>
+      <c r="G12" s="25">
+        <v>2828223.8</v>
+      </c>
+      <c r="H12" s="25">
+        <v>341483.7</v>
+      </c>
+      <c r="I12" s="25">
+        <v>776803.7</v>
+      </c>
+      <c r="J12" s="25">
+        <v>1146509</v>
+      </c>
+      <c r="K12" s="25">
+        <v>629654.80000000005</v>
+      </c>
+      <c r="L12" s="25">
+        <v>48777.1</v>
+      </c>
+      <c r="M12" s="25">
+        <v>2393898.6</v>
+      </c>
+      <c r="N12" s="25">
+        <v>998555.8</v>
+      </c>
+      <c r="O12" s="25">
+        <v>3070553.4</v>
+      </c>
+      <c r="P12" s="25">
+        <v>7656398.7000000002</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>468410.1</v>
+      </c>
+      <c r="R12" s="25">
+        <v>3087540.3</v>
+      </c>
+      <c r="S12" s="25">
+        <v>548890.4</v>
+      </c>
+      <c r="T12" s="25">
+        <v>443971.2</v>
+      </c>
+      <c r="U12" s="25">
+        <v>542476.69999999995</v>
+      </c>
+      <c r="V12" s="25">
+        <v>7240529.2000000002</v>
+      </c>
+      <c r="W12" s="25">
+        <v>3041355.5</v>
+      </c>
+      <c r="X12" s="25">
+        <v>618417.9</v>
+      </c>
+      <c r="Y12" s="25">
+        <v>721818.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5958FE6E-4604-4B72-A642-DC4E97D5FA20}">
   <dimension ref="A1:M19"/>
   <sheetViews>
@@ -3430,7 +5106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DD8044-9C85-49FC-8BC1-16C6E08FA37D}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/data/Real.xlsx
+++ b/data/Real.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MDED\Comert exterior\COD_PAGE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FAF783-B916-4649-A4DC-2CF68C355C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0867B78-DF48-4B4D-9726-A82571CCD674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4875" yWindow="4005" windowWidth="28800" windowHeight="15345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Real" sheetId="1" r:id="rId1"/>
     <sheet name="PIB" sheetId="3" r:id="rId2"/>
     <sheet name="PIB_utilizari" sheetId="5" r:id="rId3"/>
     <sheet name="Industrie" sheetId="6" r:id="rId4"/>
-    <sheet name="Industrie (2)" sheetId="8" r:id="rId5"/>
+    <sheet name="Agricultura" sheetId="9" r:id="rId5"/>
     <sheet name="Industrie_Prel" sheetId="7" r:id="rId6"/>
     <sheet name="Tranport" sheetId="2" r:id="rId7"/>
     <sheet name="Comert" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
   <si>
     <t>An</t>
   </si>
@@ -267,6 +266,15 @@
   </si>
   <si>
     <t>Fabricarea de masini, utilaje si echipamente</t>
+  </si>
+  <si>
+    <t>Producția agricolă total, %</t>
+  </si>
+  <si>
+    <t>Producția vegetală</t>
+  </si>
+  <si>
+    <t>Producția animalieră</t>
   </si>
 </sst>
 </file>
@@ -278,7 +286,7 @@
     <numFmt numFmtId="165" formatCode="[$-418]mmmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +358,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -370,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -426,12 +439,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -506,6 +534,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2771,8 +2808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B987E26-D1E4-466C-9A2C-368AEF8862E6}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3046,277 +3083,368 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEDFD3C-D0A5-489B-A0BE-224D0B97C678}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1BFE96-3D4B-4D78-8E7A-9B4703623128}">
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>48</v>
+      <c r="B1" s="28" t="s">
+        <v>4</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>2011</v>
-      </c>
-      <c r="B2" s="9">
-        <v>113.4</v>
-      </c>
-      <c r="C2" s="9">
-        <v>113.9</v>
-      </c>
-      <c r="D2" s="12">
-        <v>127.2</v>
-      </c>
-      <c r="E2" s="12">
-        <v>98.1</v>
+      <c r="A2" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="31">
+        <v>86.7</v>
+      </c>
+      <c r="D2" s="32">
+        <v>108.2</v>
+      </c>
+      <c r="E2" s="32">
+        <v>86.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>2012</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="A3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="31">
+        <v>89.8</v>
+      </c>
+      <c r="D3" s="32">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="E3" s="32">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="31">
+        <v>130.9</v>
+      </c>
+      <c r="D4" s="32">
+        <v>138.1</v>
+      </c>
+      <c r="E4" s="32">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="31">
+        <v>216</v>
+      </c>
+      <c r="D5" s="32">
+        <v>246.5</v>
+      </c>
+      <c r="E5" s="32">
+        <v>92.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="31">
         <v>97.6</v>
       </c>
-      <c r="C3" s="9">
-        <v>99.4</v>
-      </c>
-      <c r="D3" s="12">
-        <v>78.8</v>
-      </c>
-      <c r="E3" s="12">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>2013</v>
-      </c>
-      <c r="B4" s="9">
-        <v>108.6</v>
-      </c>
-      <c r="C4" s="9">
-        <v>110.7</v>
-      </c>
-      <c r="D4" s="12">
-        <v>122.2</v>
-      </c>
-      <c r="E4" s="12">
-        <v>95.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>2014</v>
-      </c>
-      <c r="B5" s="9">
-        <v>107.3</v>
-      </c>
-      <c r="C5" s="9">
-        <v>108.5</v>
-      </c>
-      <c r="D5" s="12">
-        <v>100.2</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="D6" s="32">
+        <v>86.8</v>
+      </c>
+      <c r="E6" s="32">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="31">
+        <v>92.6</v>
+      </c>
+      <c r="D7" s="32">
+        <v>92.5</v>
+      </c>
+      <c r="E7" s="32">
+        <v>92.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="31">
+        <v>78.7</v>
+      </c>
+      <c r="D8" s="32">
+        <v>75.8</v>
+      </c>
+      <c r="E8" s="32">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="31">
+        <v>55.3</v>
+      </c>
+      <c r="D9" s="32">
+        <v>49.9</v>
+      </c>
+      <c r="E9" s="32">
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="31">
+        <v>94.8</v>
+      </c>
+      <c r="D10" s="32">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="E10" s="32">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="31">
+        <v>101.53088271162352</v>
+      </c>
+      <c r="D11" s="32">
+        <v>103.92477305965497</v>
+      </c>
+      <c r="E11" s="32">
+        <v>101.10645766556515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="31">
+        <v>136.13137477856154</v>
+      </c>
+      <c r="D12" s="32">
+        <v>147.75968699159711</v>
+      </c>
+      <c r="E12" s="32">
+        <v>92.455178451931758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="31">
+        <v>114.84141078409402</v>
+      </c>
+      <c r="D13" s="32">
+        <v>116.03915705799378</v>
+      </c>
+      <c r="E13" s="32">
+        <v>109.2614196960548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="31">
+        <v>111.59995035798278</v>
+      </c>
+      <c r="D14" s="32">
+        <v>107.8290038427424</v>
+      </c>
+      <c r="E14" s="32">
+        <v>111.66741953698478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="31">
+        <v>105.5</v>
+      </c>
+      <c r="D15" s="32">
+        <v>113</v>
+      </c>
+      <c r="E15" s="32">
         <v>104.4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>2015</v>
-      </c>
-      <c r="B6" s="9">
-        <v>100.6</v>
-      </c>
-      <c r="C6" s="9">
-        <v>102.3</v>
-      </c>
-      <c r="D6" s="12">
-        <v>91</v>
-      </c>
-      <c r="E6" s="12">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="9">
-        <v>100.9</v>
-      </c>
-      <c r="C7" s="9">
-        <v>101.8</v>
-      </c>
-      <c r="D7" s="12">
-        <v>84.2</v>
-      </c>
-      <c r="E7" s="12">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="9">
-        <v>103.4</v>
-      </c>
-      <c r="C8" s="9">
-        <v>104.5</v>
-      </c>
-      <c r="D8" s="12">
-        <v>96.3</v>
-      </c>
-      <c r="E8" s="12">
-        <v>98.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="9">
-        <v>103.7</v>
-      </c>
-      <c r="C9" s="9">
-        <v>102.8</v>
-      </c>
-      <c r="D9" s="12">
-        <v>109.9</v>
-      </c>
-      <c r="E9" s="12">
-        <v>107.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="9">
-        <v>102</v>
-      </c>
-      <c r="C10" s="9">
-        <v>103.1</v>
-      </c>
-      <c r="D10" s="12">
-        <v>98.1</v>
-      </c>
-      <c r="E10" s="12">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>2020</v>
-      </c>
-      <c r="B11" s="9">
-        <v>94.5</v>
-      </c>
-      <c r="C11" s="9">
-        <v>92.9</v>
-      </c>
-      <c r="D11" s="12">
-        <v>109.5</v>
-      </c>
-      <c r="E11" s="12">
-        <v>102.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>2021</v>
-      </c>
-      <c r="B12" s="9">
-        <v>112.1</v>
-      </c>
-      <c r="C12" s="9">
-        <v>111.4</v>
-      </c>
-      <c r="D12" s="12">
-        <v>111.9</v>
-      </c>
-      <c r="E12" s="12">
-        <v>116.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>2022</v>
-      </c>
-      <c r="B13" s="9">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="31">
+        <v>93.2</v>
+      </c>
+      <c r="D16" s="32">
+        <v>84.5</v>
+      </c>
+      <c r="E16" s="32">
+        <v>110.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="31">
+        <v>85.4</v>
+      </c>
+      <c r="D17" s="32">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="E17" s="32">
+        <v>105.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="31">
+        <v>90.5</v>
+      </c>
+      <c r="D18" s="32">
+        <v>106.1</v>
+      </c>
+      <c r="E18" s="32">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>2025</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="31">
+        <v>94.2</v>
+      </c>
+      <c r="D19" s="32">
+        <v>88.6</v>
+      </c>
+      <c r="E19" s="32">
         <v>94.9</v>
       </c>
-      <c r="C13" s="9">
-        <v>95.5</v>
-      </c>
-      <c r="D13" s="12">
-        <v>95.1</v>
-      </c>
-      <c r="E13" s="12">
-        <v>91.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>2023</v>
-      </c>
-      <c r="B14" s="9">
-        <v>96.4</v>
-      </c>
-      <c r="C14" s="9">
-        <v>94.7</v>
-      </c>
-      <c r="D14" s="12">
-        <v>93.5</v>
-      </c>
-      <c r="E14" s="12">
-        <v>105.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>2024</v>
-      </c>
-      <c r="B15" s="9">
-        <v>98.9</v>
-      </c>
-      <c r="C15" s="9">
-        <v>95.5</v>
-      </c>
-      <c r="D15" s="12">
-        <v>110.7</v>
-      </c>
-      <c r="E15" s="12">
-        <v>116</v>
-      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>2025</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="31">
+        <v>114.7</v>
+      </c>
+      <c r="D20" s="32">
+        <v>122.5</v>
+      </c>
+      <c r="E20" s="6">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4298,7 +4426,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
